--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhh01mx\Google Drive2\LimeINT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960FFB0E-6F30-4CAB-911E-CA55B748AB69}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="ANTIGUA" sheetId="10" r:id="rId12"/>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,247 +156,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="119">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -827,6 +590,244 @@
         <right style="medium">
           <color rgb="FFC9C9C9"/>
         </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </top>
@@ -3346,7 +3347,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="118"/>
       <tableStyleElement type="headerRow" dxfId="117"/>
     </tableStyle>
@@ -3363,9 +3364,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3402,7 +3403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3487,18 +3487,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>124</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>919</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -3554,18 +3554,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -3582,7 +3582,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="693273600"/>
         <c:axId val="693271424"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -3590,7 +3590,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Saint Kitts and Nevis'!$C$2</c15:sqref>
@@ -3619,7 +3619,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Saint Kitts and Nevis'!$B$3:$B$5</c15:sqref>
@@ -3642,7 +3642,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Saint Kitts and Nevis'!$C$3:$C$5</c15:sqref>
@@ -3653,18 +3653,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>125</c:v>
+                        <c:v>233</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>184</c:v>
+                        <c:v>174</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>921</c:v>
+                        <c:v>785</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
                   </c:ext>
@@ -3791,7 +3791,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3859,9 +3858,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3898,7 +3897,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3983,18 +3981,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>348</c:v>
+                  <c:v>2907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -4056,12 +4054,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -4078,7 +4076,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="816569920"/>
         <c:axId val="816570464"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -4086,7 +4084,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>BVI!$C$2</c15:sqref>
@@ -4115,7 +4113,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>BVI!$B$3:$B$5</c15:sqref>
@@ -4138,7 +4136,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>BVI!$C$3:$C$5</c15:sqref>
@@ -4149,18 +4147,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>80</c:v>
+                        <c:v>130</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>138</c:v>
+                        <c:v>263</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>351</c:v>
+                        <c:v>2913</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
                   </c:ext>
@@ -4287,7 +4285,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4355,9 +4352,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4394,7 +4391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4482,18 +4478,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>717</c:v>
+                  <c:v>7936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -4547,18 +4543,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>47</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -4575,7 +4571,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="816566112"/>
         <c:axId val="816575360"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -4583,7 +4579,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>BARBADOS!$C$2</c15:sqref>
@@ -4610,7 +4606,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>BARBADOS!$B$3:$B$5</c15:sqref>
@@ -4633,7 +4629,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>BARBADOS!$C$3:$C$5</c15:sqref>
@@ -4644,18 +4640,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>36</c:v>
+                        <c:v>7025</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>476</c:v>
+                        <c:v>816</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>764</c:v>
+                        <c:v>8288</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
                   </c:ext>
@@ -4782,7 +4778,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4850,9 +4845,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4889,7 +4884,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4974,18 +4968,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>401</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -5039,18 +5033,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>42</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -5067,7 +5061,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="816571008"/>
         <c:axId val="816565568"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -5075,7 +5069,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ANTIGUA!$C$2</c15:sqref>
@@ -5102,7 +5096,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ANTIGUA!$B$3:$B$5</c15:sqref>
@@ -5125,7 +5119,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ANTIGUA!$C$3:$C$5</c15:sqref>
@@ -5136,18 +5130,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>46</c:v>
+                        <c:v>562</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>190</c:v>
+                        <c:v>277</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>443</c:v>
+                        <c:v>1295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -5274,7 +5268,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5342,9 +5335,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5381,7 +5374,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5466,18 +5458,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -5528,21 +5520,21 @@
             <c:numRef>
               <c:f>ANGUILLA!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -5560,7 +5552,7 @@
         <c:overlap val="-27"/>
         <c:axId val="816572096"/>
         <c:axId val="816577536"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -5568,7 +5560,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ANGUILLA!$C$2</c15:sqref>
@@ -5595,7 +5587,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ANGUILLA!$B$3:$B$5</c15:sqref>
@@ -5618,7 +5610,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ANGUILLA!$C$3:$C$5</c15:sqref>
@@ -5629,18 +5621,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>6</c:v>
+                        <c:v>58</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>38</c:v>
+                        <c:v>98</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>51</c:v>
+                        <c:v>244</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -5767,7 +5759,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5835,9 +5826,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5874,7 +5865,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5962,18 +5952,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -6027,18 +6017,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -6055,7 +6045,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="693261088"/>
         <c:axId val="693274144"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -6063,7 +6053,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'SANTA LUCIA'!$C$2</c15:sqref>
@@ -6090,7 +6080,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'SANTA LUCIA'!$B$3:$B$5</c15:sqref>
@@ -6113,7 +6103,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'SANTA LUCIA'!$C$3:$C$5</c15:sqref>
@@ -6124,18 +6114,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>140</c:v>
+                        <c:v>636</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>15</c:v>
+                        <c:v>662</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>430</c:v>
+                        <c:v>1827</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
                   </c:ext>
@@ -6262,7 +6252,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6330,9 +6319,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6369,7 +6358,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6454,18 +6442,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -6519,18 +6507,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>56</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -6547,7 +6535,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="693275232"/>
         <c:axId val="693260544"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -6555,7 +6543,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'TURKS&amp;CAICOS'!$C$2</c15:sqref>
@@ -6582,7 +6570,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'TURKS&amp;CAICOS'!$B$3:$B$5</c15:sqref>
@@ -6605,7 +6593,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'TURKS&amp;CAICOS'!$C$3:$C$5</c15:sqref>
@@ -6616,18 +6604,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>56</c:v>
+                        <c:v>193</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12</c:v>
+                        <c:v>376</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>283</c:v>
+                        <c:v>1023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -6754,7 +6742,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6822,9 +6809,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6861,7 +6848,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6946,18 +6932,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>1501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -7008,21 +6994,21 @@
             <c:numRef>
               <c:f>'SAINT VINCENT'!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -7040,7 +7026,7 @@
         <c:overlap val="-27"/>
         <c:axId val="693262720"/>
         <c:axId val="693270880"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -7048,7 +7034,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'SAINT VINCENT'!$C$2</c15:sqref>
@@ -7075,7 +7061,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'SAINT VINCENT'!$B$3:$B$5</c15:sqref>
@@ -7098,7 +7084,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'SAINT VINCENT'!$C$3:$C$5</c15:sqref>
@@ -7109,18 +7095,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>10</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>17</c:v>
+                        <c:v>732</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>108</c:v>
+                        <c:v>1504</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -7247,7 +7233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7315,9 +7300,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7354,7 +7339,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7439,18 +7423,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -7501,21 +7485,21 @@
             <c:numRef>
               <c:f>MONSERRAT!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -7532,7 +7516,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="693263808"/>
         <c:axId val="693268160"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -7540,7 +7524,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MONSERRAT!$C$2</c15:sqref>
@@ -7567,7 +7551,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MONSERRAT!$B$3:$B$5</c15:sqref>
@@ -7590,7 +7574,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MONSERRAT!$C$3:$C$5</c15:sqref>
@@ -7601,18 +7585,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>8</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>13</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>41</c:v>
+                        <c:v>83</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
                   </c:ext>
@@ -7739,7 +7723,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7807,9 +7790,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7846,7 +7829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7934,18 +7916,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1623</c:v>
+                  <c:v>4477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3553</c:v>
+                  <c:v>5774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7766</c:v>
+                  <c:v>17535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -7996,21 +7978,21 @@
             <c:numRef>
               <c:f>JAMAICA!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -8027,7 +8009,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="467627648"/>
         <c:axId val="467634176"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -8035,7 +8017,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>JAMAICA!$C$2</c15:sqref>
@@ -8062,7 +8044,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>JAMAICA!$B$3:$B$5</c15:sqref>
@@ -8085,7 +8067,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>JAMAICA!$C$3:$C$5</c15:sqref>
@@ -8096,18 +8078,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1629</c:v>
+                        <c:v>4486</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3558</c:v>
+                        <c:v>5774</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7800</c:v>
+                        <c:v>17576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -8234,7 +8216,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8302,9 +8283,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8341,7 +8322,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8426,18 +8406,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>449</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -8488,21 +8468,21 @@
             <c:numRef>
               <c:f>GRENADA!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -8519,7 +8499,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="816573184"/>
         <c:axId val="816562848"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -8527,7 +8507,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>GRENADA!$C$2</c15:sqref>
@@ -8554,7 +8534,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>GRENADA!$B$3:$B$5</c15:sqref>
@@ -8577,7 +8557,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>GRENADA!$C$3:$C$5</c15:sqref>
@@ -8588,18 +8568,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>94</c:v>
+                        <c:v>81</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>252</c:v>
+                        <c:v>447</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>449</c:v>
+                        <c:v>718</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -8726,7 +8706,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8794,9 +8773,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8833,7 +8812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8918,18 +8896,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4127</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -8983,18 +8961,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
             </c:ext>
@@ -9012,7 +8990,7 @@
         <c:overlap val="-27"/>
         <c:axId val="816573728"/>
         <c:axId val="816566656"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -9020,7 +8998,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>DOMINICA!$C$2</c15:sqref>
@@ -9047,7 +9025,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>DOMINICA!$B$3:$B$5</c15:sqref>
@@ -9070,7 +9048,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>DOMINICA!$C$3:$C$5</c15:sqref>
@@ -9081,18 +9059,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>25</c:v>
+                        <c:v>182</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>197</c:v>
+                        <c:v>403</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4154</c:v>
+                        <c:v>949</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
                   </c:ext>
@@ -9219,7 +9197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9287,9 +9264,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9326,7 +9303,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9411,18 +9387,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>349</c:v>
+                  <c:v>1006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -9476,18 +9452,18 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
             </c:ext>
@@ -9504,7 +9480,7 @@
         <c:gapWidth val="150"/>
         <c:axId val="816567200"/>
         <c:axId val="816574272"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -9512,7 +9488,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CAYMAN!$C$2</c15:sqref>
@@ -9539,7 +9515,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CAYMAN!$B$3:$B$5</c15:sqref>
@@ -9562,7 +9538,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CAYMAN!$C$3:$C$5</c15:sqref>
@@ -9573,18 +9549,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>44</c:v>
+                        <c:v>56</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>157</c:v>
+                        <c:v>288</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>372</c:v>
+                        <c:v>1025</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
                   </c:ext>
@@ -9711,7 +9687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16904,7 +16879,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FEE2F-BA1A-464C-9C81-1E44FD62C814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16947,7 +16922,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FEE2F-BA1A-464C-9C81-1E44FD62C814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16990,7 +16965,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FEE2F-BA1A-464C-9C81-1E44FD62C814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17033,7 +17008,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17076,7 +17051,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17119,7 +17094,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FEE2F-BA1A-464C-9C81-1E44FD62C814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17162,7 +17137,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17205,7 +17180,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17248,7 +17223,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FEE2F-BA1A-464C-9C81-1E44FD62C814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17291,7 +17266,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17334,7 +17309,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17377,7 +17352,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7496B007-B339-4BDD-B0BB-154A69AE0C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17420,7 +17395,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FEE2F-BA1A-464C-9C81-1E44FD62C814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17444,20 +17419,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="114"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="113">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="113">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="112"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="111"/>
-    <tableColumn id="5" name="% Total" dataDxfId="110"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="109">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="109">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="108">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="108">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17466,20 +17441,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13459134" displayName="Table13459134" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13459134" displayName="Table13459134" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="33"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TOTAL" dataDxfId="32">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="31"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="30"/>
-    <tableColumn id="5" name="% Total" dataDxfId="29"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="COMPLETE" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="FAILED" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="% Total" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="% COMPLETE" dataDxfId="28">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="% FAILED" dataDxfId="27">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17488,20 +17463,20 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345913" displayName="Table1345913" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1345913" displayName="Table1345913" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TOTAL" dataDxfId="23">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="4"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="3"/>
-    <tableColumn id="5" name="% Total" dataDxfId="2"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="COMPLETE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="FAILED" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="% Total" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="% COMPLETE" dataDxfId="19">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="% FAILED" dataDxfId="18">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17510,20 +17485,20 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1345923" displayName="Table1345923" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table1345923" displayName="Table1345923" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="TOTAL" dataDxfId="14">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="22"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="21"/>
-    <tableColumn id="5" name="% Total" dataDxfId="20"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="COMPLETE" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="FAILED" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="% Total" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="% COMPLETE" dataDxfId="10">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="% FAILED" dataDxfId="9">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17532,20 +17507,20 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table134592" displayName="Table134592" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table134592" displayName="Table134592" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="15"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="TOTAL" dataDxfId="5">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="13"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="12"/>
-    <tableColumn id="5" name="% Total" dataDxfId="11"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="COMPLETE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="FAILED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="% Total" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="% COMPLETE" dataDxfId="1">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="% FAILED" dataDxfId="0">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17554,20 +17529,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="105"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TOTAL" dataDxfId="104">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="103"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="102"/>
-    <tableColumn id="5" name="% Total" dataDxfId="101"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="100">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="COMPLETE" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FAILED" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% Total" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="100">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="% FAILED" dataDxfId="99">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17576,20 +17551,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="96"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="95">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="94"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="93"/>
-    <tableColumn id="5" name="% Total" dataDxfId="92"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="91">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="90">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="90">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17598,20 +17573,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TOTAL" dataDxfId="86">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="85"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="84"/>
-    <tableColumn id="5" name="% Total" dataDxfId="83"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="COMPLETE" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FAILED" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="% Total" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="82">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="81">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="% FAILED" dataDxfId="81">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17620,20 +17595,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345913458" displayName="Table1345913458" ref="B2:H5" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1345913458" displayName="Table1345913458" ref="B2:H5" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="78"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TOTAL" dataDxfId="77">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="76"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="75"/>
-    <tableColumn id="5" name="% Total" dataDxfId="74"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="COMPLETE" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FAILED" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="% Total" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% COMPLETE" dataDxfId="73">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="% FAILED" dataDxfId="72">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17642,20 +17617,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13459" displayName="Table13459" ref="B2:H5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13459" displayName="Table13459" ref="B2:H5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="69"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TOTAL" dataDxfId="68">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="67"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="66"/>
-    <tableColumn id="5" name="% Total" dataDxfId="65"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="COMPLETE" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="FAILED" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="% Total" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% COMPLETE" dataDxfId="64">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="% FAILED" dataDxfId="63">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17664,20 +17639,20 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13459237" displayName="Table13459237" ref="B2:H5" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table13459237" displayName="Table13459237" ref="B2:H5" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="60"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Column1" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="TOTAL" dataDxfId="59">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="58"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="57"/>
-    <tableColumn id="5" name="% Total" dataDxfId="56"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="COMPLETE" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="FAILED" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="% Total" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="% COMPLETE" dataDxfId="55">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="54">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="% FAILED" dataDxfId="54">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17686,20 +17661,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1345926" displayName="Table1345926" ref="B2:H5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table1345926" displayName="Table1345926" ref="B2:H5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="51"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TOTAL" dataDxfId="50">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="49"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="48"/>
-    <tableColumn id="5" name="% Total" dataDxfId="47"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="46">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="COMPLETE" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="FAILED" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="% Total" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="% COMPLETE" dataDxfId="46">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="% FAILED" dataDxfId="45">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17708,20 +17683,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table134591345" displayName="Table134591345" ref="B2:H5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="B2:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table134591345" displayName="Table134591345" ref="B2:H5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="42"/>
-    <tableColumn id="2" name="TOTAL" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TOTAL" dataDxfId="41">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMPLETE" dataDxfId="40"/>
-    <tableColumn id="4" name="FAILED" dataDxfId="39"/>
-    <tableColumn id="5" name="% Total" dataDxfId="38"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="37">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="COMPLETE" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="FAILED" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="% Total" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="% COMPLETE" dataDxfId="37">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="% FAILED" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="% FAILED" dataDxfId="36">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17991,27 +17966,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18034,50 +18009,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="D3" s="6">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.1016260162601626</v>
+        <v>0.19546979865771813</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99199999999999999</v>
+        <v>0.97424892703862664</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.575107296137339E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.14959349593495935</v>
+        <v>0.14597315436241612</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18088,37 +18063,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>921</v>
+        <v>785</v>
       </c>
       <c r="D5" s="6">
-        <v>919</v>
+        <v>776</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.74878048780487805</v>
+        <v>0.65855704697986572</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99782844733984799</v>
+        <v>0.98853503184713376</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.1715526601520088E-3</v>
+        <v>1.1464968152866241E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1230</v>
+        <v>1192</v>
       </c>
     </row>
   </sheetData>
@@ -18132,27 +18107,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18175,23 +18150,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D3" s="6">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.14059753954305801</v>
+        <v>3.9322444041137328E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18202,23 +18177,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="D4" s="6">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.24253075571177504</v>
+        <v>7.9552329098608585E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18229,37 +18204,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>351</v>
+        <v>2913</v>
       </c>
       <c r="D5" s="6">
-        <v>348</v>
+        <v>2907</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61687170474516695</v>
+        <v>0.88112522686025407</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99145299145299148</v>
+        <v>0.99794026776519051</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>8.5470085470085479E-3</v>
+        <v>2.0597322348094747E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>569</v>
+        <v>3306</v>
       </c>
     </row>
   </sheetData>
@@ -18273,25 +18248,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18314,91 +18289,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>36</v>
+        <v>7025</v>
       </c>
       <c r="D3" s="6">
-        <v>8</v>
+        <v>6695</v>
       </c>
       <c r="E3" s="6">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>2.8213166144200628E-2</v>
+        <v>0.43555087110174218</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.22222222222222221</v>
+        <v>0.95302491103202847</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.77777777777777779</v>
+        <v>4.6975088967971527E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>476</v>
+        <v>816</v>
       </c>
       <c r="D4" s="6">
-        <v>471</v>
+        <v>816</v>
       </c>
       <c r="E4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.37304075235109718</v>
+        <v>5.0592101184202369E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.98949579831932777</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.050420168067227E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>764</v>
+        <v>8288</v>
       </c>
       <c r="D5" s="6">
-        <v>717</v>
+        <v>7936</v>
       </c>
       <c r="E5" s="6">
-        <v>47</v>
+        <v>352</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59874608150470221</v>
+        <v>0.51385702771405539</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.93848167539267013</v>
+        <v>0.9575289575289575</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.1518324607329845E-2</v>
+        <v>4.2471042471042469E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>1276</v>
+        <v>16129</v>
       </c>
     </row>
   </sheetData>
@@ -18412,27 +18387,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18455,50 +18430,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>46</v>
+        <v>562</v>
       </c>
       <c r="D3" s="6">
-        <v>29</v>
+        <v>528</v>
       </c>
       <c r="E3" s="6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.774668630338733E-2</v>
+        <v>0.2633552014995314</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.63043478260869568</v>
+        <v>0.93950177935943058</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.36956521739130432</v>
+        <v>6.0498220640569395E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="D4" s="6">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.27982326951399117</v>
+        <v>0.12980318650421743</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18509,37 +18484,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>443</v>
+        <v>1295</v>
       </c>
       <c r="D5" s="6">
-        <v>401</v>
+        <v>1238</v>
       </c>
       <c r="E5" s="6">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65243004418262152</v>
+        <v>0.6068416119962512</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.90519187358916475</v>
+        <v>0.95598455598455601</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>9.480812641083522E-2</v>
+        <v>4.4015444015444015E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>679</v>
+        <v>2134</v>
       </c>
     </row>
   </sheetData>
@@ -18553,27 +18528,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18596,91 +18571,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.3157894736842107E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.98275862068965514</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D4" s="6">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.4</v>
+        <v>0.245</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.98979591836734693</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>1.020408163265306E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="D5" s="6">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.5368421052631579</v>
+        <v>0.61</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.96311475409836067</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>3.6885245901639344E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>95</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -18694,27 +18669,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18737,50 +18712,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>140</v>
+        <v>636</v>
       </c>
       <c r="D3" s="6">
-        <v>135</v>
+        <v>633</v>
       </c>
       <c r="E3" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.23931623931623933</v>
+        <v>0.20352000000000001</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9642857142857143</v>
+        <v>0.99528301886792447</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.5714285714285712E-2</v>
+        <v>4.7169811320754715E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>15</v>
+        <v>662</v>
       </c>
       <c r="D4" s="6">
-        <v>15</v>
+        <v>662</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>2.564102564102564E-2</v>
+        <v>0.21184</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18791,37 +18766,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>430</v>
+        <v>1827</v>
       </c>
       <c r="D5" s="6">
-        <v>420</v>
+        <v>1818</v>
       </c>
       <c r="E5" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.7350427350427351</v>
+        <v>0.58464000000000005</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97674418604651159</v>
+        <v>0.99507389162561577</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.3255813953488372E-2</v>
+        <v>4.9261083743842365E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>585</v>
+        <v>3125</v>
       </c>
     </row>
   </sheetData>
@@ -18835,27 +18810,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18878,50 +18853,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="D3" s="6">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="E3" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15954415954415954</v>
+        <v>0.12123115577889447</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.875</v>
+        <v>0.92746113989637302</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.125</v>
+        <v>7.2538860103626937E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="D4" s="6">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>3.4188034188034191E-2</v>
+        <v>0.23618090452261306</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18932,37 +18907,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>283</v>
+        <v>1023</v>
       </c>
       <c r="D5" s="6">
-        <v>227</v>
+        <v>945</v>
       </c>
       <c r="E5" s="6">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.80626780626780625</v>
+        <v>0.64258793969849248</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.80212014134275622</v>
+        <v>0.92375366568914952</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0.19787985865724381</v>
+        <v>7.6246334310850442E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>351</v>
+        <v>1592</v>
       </c>
     </row>
   </sheetData>
@@ -18976,27 +18951,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19019,50 +18994,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="D3" s="6">
-        <v>10</v>
+        <v>537</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.19394376351838499</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.9981412639405205</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>1.8587360594795538E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>17</v>
+        <v>732</v>
       </c>
       <c r="D4" s="6">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6">
+        <v>732</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.12592592592592591</v>
+        <v>0.26387887527036769</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19073,37 +19048,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>108</v>
+        <v>1504</v>
       </c>
       <c r="D5" s="6">
-        <v>108</v>
+        <v>1501</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.8</v>
+        <v>0.54217736121124727</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.9980053191489362</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>1.9946808510638296E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>135</v>
+        <v>2774</v>
       </c>
     </row>
   </sheetData>
@@ -19117,27 +19092,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19160,23 +19135,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12903225806451613</v>
+        <v>0.18796992481203006</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19187,23 +19162,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.20967741935483872</v>
+        <v>0.18796992481203006</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19214,37 +19189,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66129032258064513</v>
+        <v>0.62406015037593987</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.96385542168674698</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>3.614457831325301E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -19258,25 +19233,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19299,91 +19274,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1629</v>
+        <v>4486</v>
       </c>
       <c r="D3" s="6">
-        <v>1623</v>
+        <v>4477</v>
       </c>
       <c r="E3" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12543312543312543</v>
+        <v>0.1611582123868372</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99631675874769798</v>
+        <v>0.99799375835934012</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.6832412523020259E-3</v>
+        <v>2.0062416406598305E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>3558</v>
+        <v>5774</v>
       </c>
       <c r="D4" s="6">
-        <v>3553</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
+        <v>5774</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.27396627396627399</v>
+        <v>0.20742922833740479</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99859471613265882</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.405283867341203E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>7800</v>
+        <v>17576</v>
       </c>
       <c r="D5" s="6">
-        <v>7766</v>
+        <v>17535</v>
       </c>
       <c r="E5" s="6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.60060060060060061</v>
+        <v>0.63141255927575801</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99564102564102563</v>
+        <v>0.99766727355484752</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.3589743589743588E-3</v>
+        <v>2.3327264451524807E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>12987</v>
+        <v>27836</v>
       </c>
     </row>
   </sheetData>
@@ -19397,27 +19372,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19440,23 +19415,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.11823899371069183</v>
+        <v>6.5008025682182988E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19467,23 +19442,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>252</v>
+        <v>447</v>
       </c>
       <c r="D4" s="6">
-        <v>252</v>
-      </c>
-      <c r="E4" s="6">
+        <v>447</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.31698113207547168</v>
+        <v>0.35874799357945425</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19494,37 +19469,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>449</v>
+        <v>718</v>
       </c>
       <c r="D5" s="6">
-        <v>449</v>
+        <v>713</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.56477987421383646</v>
+        <v>0.5762439807383628</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.99303621169916434</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>6.9637883008356544E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>795</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -19538,27 +19513,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19581,91 +19556,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="D3" s="6">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E3" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>5.712979890310786E-3</v>
+        <v>0.11864406779661017</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.84</v>
+        <v>0.91758241758241754</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.16</v>
+        <v>8.2417582417582416E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="D4" s="6">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>4.5018281535648998E-2</v>
+        <v>0.26271186440677968</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.97518610421836227</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>2.4813895781637719E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>4154</v>
+        <v>949</v>
       </c>
       <c r="D5" s="6">
-        <v>4127</v>
+        <v>932</v>
       </c>
       <c r="E5" s="6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.94926873857404026</v>
+        <v>0.61864406779661019</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99350024073182475</v>
+        <v>0.98208640674394099</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.4997592681752528E-3</v>
+        <v>1.7913593256059009E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>4376</v>
+        <v>1534</v>
       </c>
     </row>
   </sheetData>
@@ -19679,27 +19654,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19722,91 +19697,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>7.6788830715532289E-2</v>
+        <v>4.0905770635500369E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.90909090909090906</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>9.0909090909090912E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="D4" s="6">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.27399650959860383</v>
+        <v>0.21037253469685901</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.98726114649681529</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>372</v>
+        <v>1025</v>
       </c>
       <c r="D5" s="6">
-        <v>349</v>
+        <v>1006</v>
       </c>
       <c r="E5" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.64921465968586389</v>
+        <v>0.7487216946676406</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.93817204301075274</v>
+        <v>0.98146341463414632</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.1827956989247312E-2</v>
+        <v>1.8536585365853658E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>573</v>
+        <v>1369</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960FFB0E-6F30-4CAB-911E-CA55B748AB69}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFCC9F7-1DB4-4B32-9C09-12F591CB9A82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId1"/>
@@ -3487,13 +3487,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>227</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>776</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,13 +3554,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,13 +3653,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>233</c:v>
+                        <c:v>176</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>174</c:v>
+                        <c:v>185</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>785</c:v>
+                        <c:v>776</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3981,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2907</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,13 +4048,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,13 +4147,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>130</c:v>
+                        <c:v>133</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>263</c:v>
+                        <c:v>415</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2913</c:v>
+                        <c:v>904</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4478,13 +4478,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6695</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>816</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7936</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4543,13 +4543,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>330</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>352</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,13 +4640,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>7025</c:v>
+                        <c:v>32</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>816</c:v>
+                        <c:v>864</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>8288</c:v>
+                        <c:v>1415</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4968,13 +4968,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>528</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>277</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1238</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5033,13 +5033,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>34</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>57</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5130,13 +5130,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>562</c:v>
+                        <c:v>79</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>277</c:v>
+                        <c:v>270</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1295</c:v>
+                        <c:v>679</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5458,13 +5458,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,13 +5523,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>58</c:v>
+                        <c:v>42</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>98</c:v>
+                        <c:v>73</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>244</c:v>
+                        <c:v>586</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5952,13 +5952,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>633</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>662</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1818</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6017,13 +6017,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6114,13 +6114,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>636</c:v>
+                        <c:v>503</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>662</c:v>
+                        <c:v>405</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1827</c:v>
+                        <c:v>1564</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6442,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>179</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>376</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>945</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>14</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>78</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>193</c:v>
+                        <c:v>165</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>376</c:v>
+                        <c:v>210</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1023</c:v>
+                        <c:v>676</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6932,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>537</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>732</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1501</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6997,7 +6997,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7095,13 +7095,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>538</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>732</c:v>
+                        <c:v>466</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1504</c:v>
+                        <c:v>737</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7423,13 +7423,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7494,7 +7494,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7585,13 +7585,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>25</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>83</c:v>
+                        <c:v>49</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7916,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4477</c:v>
+                  <c:v>2438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5774</c:v>
+                  <c:v>6405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17535</c:v>
+                  <c:v>14857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,13 +7981,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,13 +8078,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4486</c:v>
+                        <c:v>2453</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5774</c:v>
+                        <c:v>6405</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17576</c:v>
+                        <c:v>14899</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8406,13 +8406,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>447</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>713</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8474,10 +8474,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8568,13 +8568,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>81</c:v>
+                        <c:v>83</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>447</c:v>
+                        <c:v>384</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>718</c:v>
+                        <c:v>723</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8896,13 +8896,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>167</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>932</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8961,13 +8961,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9059,13 +9059,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>182</c:v>
+                        <c:v>81</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>403</c:v>
+                        <c:v>329</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>949</c:v>
+                        <c:v>837</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9387,13 +9387,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1006</c:v>
+                  <c:v>1571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9452,13 +9452,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>19</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9549,13 +9549,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>56</c:v>
+                        <c:v>81</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>288</c:v>
+                        <c:v>320</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1025</c:v>
+                        <c:v>1608</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17969,8 +17969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18015,25 +18015,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E3" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.19546979865771813</v>
+        <v>0.15479331574318381</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.97424892703862664</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>2.575107296137339E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18042,17 +18042,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.14597315436241612</v>
+        <v>0.16270888302550571</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18069,31 +18069,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D5" s="6">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E5" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65855704697986572</v>
+        <v>0.68249780123131043</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98853503184713376</v>
+        <v>0.99742268041237114</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.1464968152866241E-2</v>
+        <v>2.5773195876288659E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1192</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
@@ -18111,7 +18111,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18156,25 +18156,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D3" s="6">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>3.9322444041137328E-2</v>
+        <v>9.1597796143250684E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.99248120300751874</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>7.5187969924812026E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18183,17 +18183,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="D4" s="6">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>7.9552329098608585E-2</v>
+        <v>0.28581267217630851</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18210,31 +18210,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2913</v>
+        <v>904</v>
       </c>
       <c r="D5" s="6">
-        <v>2907</v>
+        <v>902</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.88112522686025407</v>
+        <v>0.62258953168044073</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99794026776519051</v>
+        <v>0.99778761061946908</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.0597322348094747E-3</v>
+        <v>2.2123893805309734E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>3306</v>
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
@@ -18252,7 +18252,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18295,25 +18295,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>7025</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
-        <v>6695</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.43555087110174218</v>
+        <v>1.3846819558632626E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.95302491103202847</v>
+        <v>0.65625</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.6975088967971527E-2</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18322,17 +18322,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>816</v>
+        <v>864</v>
       </c>
       <c r="D4" s="6">
-        <v>816</v>
+        <v>864</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>5.0592101184202369E-2</v>
+        <v>0.37386412808308089</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18349,31 +18349,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>8288</v>
+        <v>1415</v>
       </c>
       <c r="D5" s="6">
-        <v>7936</v>
+        <v>1354</v>
       </c>
       <c r="E5" s="6">
-        <v>352</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.51385702771405539</v>
+        <v>0.61228905235828646</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9575289575289575</v>
+        <v>0.95689045936395756</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.2471042471042469E-2</v>
+        <v>4.3109540636042401E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>16129</v>
+        <v>2311</v>
       </c>
     </row>
   </sheetData>
@@ -18391,7 +18391,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18436,25 +18436,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="D3" s="6">
-        <v>528</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.2633552014995314</v>
+        <v>7.6848249027237359E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.93950177935943058</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>6.0498220640569395E-2</v>
+        <v>0.16455696202531644</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18463,17 +18463,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D4" s="6">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.12980318650421743</v>
+        <v>0.26264591439688717</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18490,31 +18490,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1295</v>
+        <v>679</v>
       </c>
       <c r="D5" s="6">
-        <v>1238</v>
+        <v>645</v>
       </c>
       <c r="E5" s="6">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.6068416119962512</v>
+        <v>0.66050583657587547</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.95598455598455601</v>
+        <v>0.94992636229749627</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.4015444015444015E-2</v>
+        <v>5.0073637702503684E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2134</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -18531,8 +18531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18577,25 +18577,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.14499999999999999</v>
+        <v>5.9914407988587728E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98275862068965514</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.7241379310344827E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18604,25 +18604,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.245</v>
+        <v>0.10413694721825963</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.98979591836734693</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.020408163265306E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18631,31 +18631,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>244</v>
+        <v>586</v>
       </c>
       <c r="D5" s="6">
-        <v>235</v>
+        <v>574</v>
       </c>
       <c r="E5" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61</v>
+        <v>0.83594864479315267</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96311475409836067</v>
+        <v>0.97952218430034133</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.6885245901639344E-2</v>
+        <v>2.0477815699658702E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>400</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -18672,8 +18672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18718,25 +18718,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="D3" s="6">
-        <v>633</v>
+        <v>501</v>
       </c>
       <c r="E3" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.20352000000000001</v>
+        <v>0.20347896440129451</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99528301886792447</v>
+        <v>0.99602385685884687</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.7169811320754715E-3</v>
+        <v>3.9761431411530811E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18745,17 +18745,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>662</v>
+        <v>405</v>
       </c>
       <c r="D4" s="6">
-        <v>662</v>
+        <v>405</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21184</v>
+        <v>0.16383495145631069</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18772,31 +18772,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1827</v>
+        <v>1564</v>
       </c>
       <c r="D5" s="6">
-        <v>1818</v>
+        <v>1547</v>
       </c>
       <c r="E5" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.58464000000000005</v>
+        <v>0.6326860841423948</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99507389162561577</v>
+        <v>0.98913043478260865</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.9261083743842365E-3</v>
+        <v>1.0869565217391304E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>3125</v>
+        <v>2472</v>
       </c>
     </row>
   </sheetData>
@@ -18814,7 +18814,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18859,25 +18859,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="E3" s="6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12123115577889447</v>
+        <v>0.15699333967649856</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.92746113989637302</v>
+        <v>0.8606060606060606</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>7.2538860103626937E-2</v>
+        <v>0.1393939393939394</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18886,17 +18886,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="D4" s="6">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.23618090452261306</v>
+        <v>0.19980970504281637</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18913,31 +18913,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1023</v>
+        <v>676</v>
       </c>
       <c r="D5" s="6">
-        <v>945</v>
+        <v>561</v>
       </c>
       <c r="E5" s="6">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.64258793969849248</v>
+        <v>0.6431969552806851</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.92375366568914952</v>
+        <v>0.82988165680473369</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.6246334310850442E-2</v>
+        <v>0.17011834319526628</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1592</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -18954,8 +18954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19000,25 +19000,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
-        <v>537</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.19394376351838499</v>
+        <v>3.5284683239775461E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9981412639405205</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.8587360594795538E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19027,17 +19027,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>732</v>
+        <v>466</v>
       </c>
       <c r="D4" s="6">
-        <v>732</v>
+        <v>466</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26387887527036769</v>
+        <v>0.37369687249398559</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19054,31 +19054,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1504</v>
+        <v>737</v>
       </c>
       <c r="D5" s="6">
-        <v>1501</v>
+        <v>734</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.54217736121124727</v>
+        <v>0.59101844426623895</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9980053191489362</v>
+        <v>0.99592944369063774</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.9946808510638296E-3</v>
+        <v>4.0705563093622792E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2774</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -19096,7 +19096,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19141,17 +19141,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.18796992481203006</v>
+        <v>0.20270270270270271</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19168,17 +19168,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.18796992481203006</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19195,31 +19195,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62406015037593987</v>
+        <v>0.66216216216216217</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96385542168674698</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.614457831325301E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -19237,7 +19237,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19280,25 +19280,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>4486</v>
+        <v>2453</v>
       </c>
       <c r="D3" s="6">
-        <v>4477</v>
+        <v>2438</v>
       </c>
       <c r="E3" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.1611582123868372</v>
+        <v>0.10325377783390159</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99799375835934012</v>
+        <v>0.99388503872808809</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>2.0062416406598305E-3</v>
+        <v>6.1149612719119447E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19307,17 +19307,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>5774</v>
+        <v>6405</v>
       </c>
       <c r="D4" s="6">
-        <v>5774</v>
+        <v>6405</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.20742922833740479</v>
+        <v>0.26960474807425178</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19334,31 +19334,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>17576</v>
+        <v>14899</v>
       </c>
       <c r="D5" s="6">
-        <v>17535</v>
+        <v>14857</v>
       </c>
       <c r="E5" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.63141255927575801</v>
+        <v>0.62714147409184662</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99766727355484752</v>
+        <v>0.99718101886032617</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.3327264451524807E-3</v>
+        <v>2.8189811396738037E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>27836</v>
+        <v>23757</v>
       </c>
     </row>
   </sheetData>
@@ -19375,8 +19375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19421,17 +19421,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.5008025682182988E-2</v>
+        <v>6.9747899159663868E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19448,25 +19448,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="D4" s="6">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.35874799357945425</v>
+        <v>0.32268907563025212</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99739583333333337</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>2.6041666666666665E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19475,31 +19475,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D5" s="6">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.5762439807383628</v>
+        <v>0.60756302521008398</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99303621169916434</v>
+        <v>0.99446749654218536</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.9637883008356544E-3</v>
+        <v>5.5325034578146614E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1246</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -19517,7 +19517,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19562,25 +19562,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="E3" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.11864406779661017</v>
+        <v>6.495589414595028E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.91758241758241754</v>
+        <v>0.98765432098765427</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.2417582417582416E-2</v>
+        <v>1.2345679012345678E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19589,25 +19589,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="D4" s="6">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="E4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26271186440677968</v>
+        <v>0.26383319967923013</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.97518610421836227</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.4813895781637719E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19616,31 +19616,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>949</v>
+        <v>837</v>
       </c>
       <c r="D5" s="6">
-        <v>932</v>
+        <v>832</v>
       </c>
       <c r="E5" s="6">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61864406779661019</v>
+        <v>0.6712109061748196</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98208640674394099</v>
+        <v>0.99402628434886497</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.7913593256059009E-2</v>
+        <v>5.9737156511350063E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1534</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -19658,7 +19658,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19703,25 +19703,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.0905770635500369E-2</v>
+        <v>4.0318566450970629E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.7857142857142856E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19730,25 +19730,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="D4" s="6">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="E4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21037253469685901</v>
+        <v>0.15928322548531607</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.98611111111111116</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.3888888888888888E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19757,31 +19757,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1025</v>
+        <v>1608</v>
       </c>
       <c r="D5" s="6">
-        <v>1006</v>
+        <v>1571</v>
       </c>
       <c r="E5" s="6">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.7487216946676406</v>
+        <v>0.80039820806371331</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98146341463414632</v>
+        <v>0.97699004975124382</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.8536585365853658E-2</v>
+        <v>2.3009950248756218E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1369</v>
+        <v>2009</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFCC9F7-1DB4-4B32-9C09-12F591CB9A82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F95B9B-98B3-49F3-A666-DDEEDBEDF15C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId1"/>
@@ -3487,13 +3487,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>176</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>774</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,13 +3554,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,13 +3653,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>176</c:v>
+                        <c:v>302</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>185</c:v>
+                        <c:v>244</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>776</c:v>
+                        <c:v>811</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3981,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>132</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>902</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,13 +4048,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,13 +4147,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>133</c:v>
+                        <c:v>209</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>415</c:v>
+                        <c:v>559</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>904</c:v>
+                        <c:v>1861</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4478,13 +4478,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>864</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1354</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4543,13 +4543,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>61</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,13 +4640,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>32</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>864</c:v>
+                        <c:v>816</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1415</c:v>
+                        <c:v>1353</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4968,13 +4968,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>645</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,7 +5039,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>34</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5130,13 +5130,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>79</c:v>
+                        <c:v>87</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>270</c:v>
+                        <c:v>438</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>679</c:v>
+                        <c:v>980</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5458,13 +5458,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,7 +5529,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>42</c:v>
+                        <c:v>53</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>73</c:v>
+                        <c:v>220</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>586</c:v>
+                        <c:v>426</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5952,13 +5952,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>501</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>405</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1547</c:v>
+                  <c:v>1203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6017,13 +6017,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6114,13 +6114,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>503</c:v>
+                        <c:v>324</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>405</c:v>
+                        <c:v>402</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1564</c:v>
+                        <c:v>1210</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6442,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>561</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>115</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>165</c:v>
+                        <c:v>171</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>210</c:v>
+                        <c:v>354</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>676</c:v>
+                        <c:v>820</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6932,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>734</c:v>
+                  <c:v>1233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7095,13 +7095,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>44</c:v>
+                        <c:v>268</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>466</c:v>
+                        <c:v>681</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>737</c:v>
+                        <c:v>1236</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7423,13 +7423,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7585,13 +7585,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>15</c:v>
+                        <c:v>23</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>49</c:v>
+                        <c:v>86</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7916,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2438</c:v>
+                  <c:v>4035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6405</c:v>
+                  <c:v>6369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14857</c:v>
+                  <c:v>22316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,13 +7981,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>42</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,13 +8078,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2453</c:v>
+                        <c:v>4051</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6405</c:v>
+                        <c:v>6377</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>14899</c:v>
+                        <c:v>22370</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8406,13 +8406,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>383</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>719</c:v>
+                  <c:v>1614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8471,13 +8471,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8568,13 +8568,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>83</c:v>
+                        <c:v>155</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>384</c:v>
+                        <c:v>380</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>723</c:v>
+                        <c:v>1621</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8896,13 +8896,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>329</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>832</c:v>
+                  <c:v>1459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8961,13 +8961,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9059,13 +9059,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>81</c:v>
+                        <c:v>590</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>329</c:v>
+                        <c:v>452</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>837</c:v>
+                        <c:v>1465</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9387,13 +9387,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1571</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9452,13 +9452,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>37</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9549,13 +9549,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>81</c:v>
+                        <c:v>92</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>320</c:v>
+                        <c:v>325</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1608</c:v>
+                        <c:v>3507</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17969,8 +17969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18015,25 +18015,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="D3" s="6">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15479331574318381</v>
+        <v>0.22254974207811348</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.9072847682119205</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>9.2715231788079472E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18042,17 +18042,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="D4" s="6">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.16270888302550571</v>
+        <v>0.17980840088430361</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18069,31 +18069,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="D5" s="6">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.68249780123131043</v>
+        <v>0.59764185703758288</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99742268041237114</v>
+        <v>0.96547472256473488</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.5773195876288659E-3</v>
+        <v>3.4525277435265102E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1137</v>
+        <v>1357</v>
       </c>
     </row>
   </sheetData>
@@ -18156,25 +18156,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="D3" s="6">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>9.1597796143250684E-2</v>
+        <v>7.9497907949790794E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99248120300751874</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>7.5187969924812026E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18183,25 +18183,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="D4" s="6">
-        <v>415</v>
+        <v>558</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.28581267217630851</v>
+        <v>0.21262837580829214</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99821109123434704</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>1.7889087656529517E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18210,31 +18210,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>904</v>
+        <v>1861</v>
       </c>
       <c r="D5" s="6">
-        <v>902</v>
+        <v>1855</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62258953168044073</v>
+        <v>0.70787371624191708</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99778761061946908</v>
+        <v>0.99677592692101025</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.2123893805309734E-3</v>
+        <v>3.2240730789897904E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1452</v>
+        <v>2629</v>
       </c>
     </row>
   </sheetData>
@@ -18251,7 +18251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18295,25 +18295,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>1.3846819558632626E-2</v>
+        <v>1.3642564802182811E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.65625</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.34375</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18322,17 +18322,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>864</v>
+        <v>816</v>
       </c>
       <c r="D4" s="6">
-        <v>864</v>
+        <v>816</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.37386412808308089</v>
+        <v>0.37107776261937242</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18349,31 +18349,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1415</v>
+        <v>1353</v>
       </c>
       <c r="D5" s="6">
-        <v>1354</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="6">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61228905235828646</v>
+        <v>0.61527967257844474</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.95689045936395756</v>
+        <v>0.96452328159645229</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.3109540636042401E-2</v>
+        <v>3.5476718403547672E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>2311</v>
+        <v>2199</v>
       </c>
     </row>
   </sheetData>
@@ -18388,6 +18388,147 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>87</v>
+      </c>
+      <c r="D3" s="6">
+        <v>74</v>
+      </c>
+      <c r="E3" s="6">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>5.7807308970099669E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.85057471264367812</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>0.14942528735632185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>438</v>
+      </c>
+      <c r="D4" s="6">
+        <v>438</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.29102990033222592</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>D5+E5</f>
+        <v>980</v>
+      </c>
+      <c r="D5" s="6">
+        <v>957</v>
+      </c>
+      <c r="E5" s="6">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.97653061224489801</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>2.3469387755102041E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>1505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18436,25 +18577,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>7.6848249027237359E-2</v>
+        <v>7.5822603719599424E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.83544303797468356</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.16455696202531644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18463,17 +18604,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="D4" s="6">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26264591439688717</v>
+        <v>0.31473533619456368</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18490,172 +18631,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>679</v>
+        <v>426</v>
       </c>
       <c r="D5" s="6">
-        <v>645</v>
+        <v>420</v>
       </c>
       <c r="E5" s="6">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66050583657587547</v>
+        <v>0.6094420600858369</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.94992636229749627</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.0073637702503684E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1028</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>42</v>
-      </c>
-      <c r="D3" s="6">
-        <v>42</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>5.9914407988587728E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>73</v>
-      </c>
-      <c r="D4" s="6">
-        <v>73</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.10413694721825963</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>586</v>
-      </c>
-      <c r="D5" s="6">
-        <v>574</v>
-      </c>
-      <c r="E5" s="6">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.83594864479315267</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.97952218430034133</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>2.0477815699658702E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -18672,7 +18672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18718,25 +18718,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>503</v>
+        <v>324</v>
       </c>
       <c r="D3" s="6">
-        <v>501</v>
+        <v>324</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.20347896440129451</v>
+        <v>0.16735537190082644</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99602385685884687</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.9761431411530811E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18745,17 +18745,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D4" s="6">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.16383495145631069</v>
+        <v>0.20764462809917356</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18772,31 +18772,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1564</v>
+        <v>1210</v>
       </c>
       <c r="D5" s="6">
-        <v>1547</v>
+        <v>1203</v>
       </c>
       <c r="E5" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.6326860841423948</v>
+        <v>0.625</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98913043478260865</v>
+        <v>0.9942148760330578</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.0869565217391304E-2</v>
+        <v>5.7851239669421484E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2472</v>
+        <v>1936</v>
       </c>
     </row>
   </sheetData>
@@ -18859,25 +18859,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E3" s="6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15699333967649856</v>
+        <v>0.12713754646840147</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.8606060606060606</v>
+        <v>0.90058479532163738</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.1393939393939394</v>
+        <v>9.9415204678362568E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18886,17 +18886,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>210</v>
+        <v>354</v>
       </c>
       <c r="D4" s="6">
-        <v>210</v>
+        <v>354</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.19980970504281637</v>
+        <v>0.26319702602230483</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18913,31 +18913,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>676</v>
+        <v>820</v>
       </c>
       <c r="D5" s="6">
-        <v>561</v>
+        <v>756</v>
       </c>
       <c r="E5" s="6">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.6431969552806851</v>
+        <v>0.60966542750929364</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.82988165680473369</v>
+        <v>0.92195121951219516</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0.17011834319526628</v>
+        <v>7.8048780487804878E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1051</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -19000,17 +19000,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="D3" s="6">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>3.5284683239775461E-2</v>
+        <v>0.12265446224256293</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19027,17 +19027,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>466</v>
+        <v>681</v>
       </c>
       <c r="D4" s="6">
-        <v>466</v>
+        <v>681</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.37369687249398559</v>
+        <v>0.3116704805491991</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19054,31 +19054,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>737</v>
+        <v>1236</v>
       </c>
       <c r="D5" s="6">
-        <v>734</v>
+        <v>1233</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59101844426623895</v>
+        <v>0.56567505720823796</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99592944369063774</v>
+        <v>0.99757281553398058</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.0705563093622792E-3</v>
+        <v>2.4271844660194173E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1247</v>
+        <v>2185</v>
       </c>
     </row>
   </sheetData>
@@ -19095,7 +19095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -19141,17 +19141,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.20270270270270271</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19168,17 +19168,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.13513513513513514</v>
+        <v>0.21014492753623187</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19195,17 +19195,17 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66216216216216217</v>
+        <v>0.62318840579710144</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -19219,7 +19219,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -19280,25 +19280,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>2453</v>
+        <v>4051</v>
       </c>
       <c r="D3" s="6">
-        <v>2438</v>
+        <v>4035</v>
       </c>
       <c r="E3" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.10325377783390159</v>
+        <v>0.12351362887980974</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99388503872808809</v>
+        <v>0.99605035793631203</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>6.1149612719119447E-3</v>
+        <v>3.9496420636879782E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19307,25 +19307,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>6405</v>
+        <v>6377</v>
       </c>
       <c r="D4" s="6">
-        <v>6405</v>
+        <v>6369</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26960474807425178</v>
+        <v>0.19443258735288738</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.9987454916104751</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>1.254508389524855E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19334,31 +19334,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>14899</v>
+        <v>22370</v>
       </c>
       <c r="D5" s="6">
-        <v>14857</v>
+        <v>22316</v>
       </c>
       <c r="E5" s="6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62714147409184662</v>
+        <v>0.68205378376730286</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99718101886032617</v>
+        <v>0.99758605274921774</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.8189811396738037E-3</v>
+        <v>2.4139472507822978E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>23757</v>
+        <v>32798</v>
       </c>
     </row>
   </sheetData>
@@ -19375,7 +19375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -19421,25 +19421,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="D3" s="6">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.9747899159663868E-2</v>
+        <v>7.1892393320964754E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.99354838709677418</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>6.4516129032258064E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19448,25 +19448,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D4" s="6">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.32268907563025212</v>
+        <v>0.17625231910946196</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99739583333333337</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.6041666666666665E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19475,31 +19475,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>723</v>
+        <v>1621</v>
       </c>
       <c r="D5" s="6">
-        <v>719</v>
+        <v>1614</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.60756302521008398</v>
+        <v>0.75185528756957332</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99446749654218536</v>
+        <v>0.99568167797655771</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.5325034578146614E-3</v>
+        <v>4.3183220234423196E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1190</v>
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -19562,25 +19562,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>81</v>
+        <v>590</v>
       </c>
       <c r="D3" s="6">
-        <v>80</v>
+        <v>588</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.495589414595028E-2</v>
+        <v>0.23534104507379339</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98765432098765427</v>
+        <v>0.99661016949152548</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.2345679012345678E-2</v>
+        <v>3.3898305084745762E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19589,17 +19589,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>329</v>
+        <v>452</v>
       </c>
       <c r="D4" s="6">
-        <v>329</v>
+        <v>452</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26383319967923013</v>
+        <v>0.18029517351416036</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19616,31 +19616,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>837</v>
+        <v>1465</v>
       </c>
       <c r="D5" s="6">
-        <v>832</v>
+        <v>1459</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.6712109061748196</v>
+        <v>0.58436378141204626</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99402628434886497</v>
+        <v>0.99590443686006824</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.9737156511350063E-3</v>
+        <v>4.0955631399317407E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1247</v>
+        <v>2507</v>
       </c>
     </row>
   </sheetData>
@@ -19658,7 +19658,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19703,25 +19703,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.0318566450970629E-2</v>
+        <v>2.3445463812436288E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>2.1739130434782608E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19730,25 +19730,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D4" s="6">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.15928322548531607</v>
+        <v>8.2823649337410807E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99384615384615382</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>6.1538461538461538E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19757,31 +19757,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1608</v>
+        <v>3507</v>
       </c>
       <c r="D5" s="6">
-        <v>1571</v>
+        <v>3402</v>
       </c>
       <c r="E5" s="6">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.80039820806371331</v>
+        <v>0.89373088685015289</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97699004975124382</v>
+        <v>0.97005988023952094</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.3009950248756218E-2</v>
+        <v>2.9940119760479042E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2009</v>
+        <v>3924</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A913D2C-ACE5-47C7-BFEE-ADF4756FB544}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED6728-7AF7-4CCD-9318-4F18807EE2BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId1"/>
@@ -162,6 +162,1464 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="119">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1870,1464 +3328,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3490,7 +3490,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>67</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
@@ -3653,7 +3653,7 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>67</c:v>
+                        <c:v>63</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.01</c:v>
@@ -3981,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>207</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>797</c:v>
+                  <c:v>1321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4052,7 +4052,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,13 +4144,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>207</c:v>
+                        <c:v>563</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>420</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>798</c:v>
+                        <c:v>1323</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4475,13 +4475,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>592</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>377</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2348</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,13 +4540,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>14</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,13 +4637,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>599</c:v>
+                        <c:v>487</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>378</c:v>
+                        <c:v>427</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2362</c:v>
+                        <c:v>1450</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4965,13 +4965,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>690</c:v>
+                  <c:v>698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,13 +5032,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,13 +5131,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>252</c:v>
+                        <c:v>198</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>187</c:v>
+                        <c:v>272</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>694</c:v>
+                        <c:v>703</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5459,13 +5459,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>348</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1451</c:v>
+                  <c:v>904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,13 +5524,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>53</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>171</c:v>
+                        <c:v>154</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>348</c:v>
+                        <c:v>407</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1504</c:v>
+                        <c:v>945</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5949,13 +5949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>868</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2507</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,13 +6014,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>41</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>68</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,13 +6111,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>909</c:v>
+                        <c:v>63</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>304</c:v>
+                        <c:v>372</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2575</c:v>
+                        <c:v>968</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6442,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>772</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1214</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>38</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>33</c:v>
+                        <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>772</c:v>
+                        <c:v>801</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1252</c:v>
+                        <c:v>1247</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6932,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>867</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7005,7 +7005,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,13 +7098,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>199</c:v>
+                        <c:v>109</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>300</c:v>
+                        <c:v>345</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>869</c:v>
+                        <c:v>675</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7426,13 +7426,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>624</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>294</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1702</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,13 +7491,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>46</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,13 +7588,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>633</c:v>
+                        <c:v>73</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>295</c:v>
+                        <c:v>285</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1748</c:v>
+                        <c:v>722</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7916,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>3382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1279</c:v>
+                  <c:v>4137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,13 +7981,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,13 +8079,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>112</c:v>
+                        <c:v>3394</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>380</c:v>
+                        <c:v>477</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1301</c:v>
+                        <c:v>4151</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8407,13 +8407,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>114</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>366</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>770</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8478,7 +8478,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,13 +8569,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>114</c:v>
+                        <c:v>279</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>366</c:v>
+                        <c:v>358</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>770</c:v>
+                        <c:v>824</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8900,13 +8900,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3240</c:v>
+                  <c:v>3396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5687</c:v>
+                  <c:v>4926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17457</c:v>
+                  <c:v>13339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,13 +8965,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>67</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,13 +9062,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>3250</c:v>
+                        <c:v>3417</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5691</c:v>
+                        <c:v>4927</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17524</c:v>
+                        <c:v>13390</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9390,13 +9390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,13 +9552,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>18</c:v>
+                        <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>49</c:v>
+                        <c:v>71</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17422,20 +17422,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table134592" displayName="Table134592" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table134592" displayName="Table134592" ref="B2:H5" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="TOTAL" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Column1" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="TOTAL" dataDxfId="113">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="COMPLETE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="FAILED" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="% Total" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="% COMPLETE" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="COMPLETE" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="FAILED" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="% Total" dataDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="% COMPLETE" dataDxfId="109">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="% FAILED" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="% FAILED" dataDxfId="108">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17444,20 +17444,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TOTAL" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TOTAL" dataDxfId="32">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="COMPLETE" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FAILED" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="% Total" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="COMPLETE" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FAILED" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="% Total" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="28">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="% FAILED" dataDxfId="81">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="% FAILED" dataDxfId="27">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17466,20 +17466,20 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TOTAL" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TOTAL" dataDxfId="23">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="COMPLETE" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FAILED" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% Total" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="100">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="COMPLETE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FAILED" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% Total" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="19">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="% FAILED" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="% FAILED" dataDxfId="18">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17488,20 +17488,20 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="113">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="14">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="109">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="10">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="108">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="9">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17510,20 +17510,20 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="5">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="90">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="0">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17532,20 +17532,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table1345923" displayName="Table1345923" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table1345923" displayName="Table1345923" ref="B2:H5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="TOTAL" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="TOTAL" dataDxfId="104">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="COMPLETE" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="FAILED" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="% Total" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="% COMPLETE" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="COMPLETE" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="FAILED" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="% Total" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="% COMPLETE" dataDxfId="100">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="% FAILED" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="% FAILED" dataDxfId="99">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17554,20 +17554,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1345913" displayName="Table1345913" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1345913" displayName="Table1345913" ref="B2:H5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TOTAL" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Column1" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TOTAL" dataDxfId="95">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="COMPLETE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="FAILED" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="% Total" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="% COMPLETE" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="COMPLETE" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="FAILED" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="% Total" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="% COMPLETE" dataDxfId="91">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="% FAILED" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="% FAILED" dataDxfId="90">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17576,20 +17576,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13459134" displayName="Table13459134" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13459134" displayName="Table13459134" ref="B2:H5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TOTAL" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TOTAL" dataDxfId="86">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="COMPLETE" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="FAILED" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="% Total" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="% COMPLETE" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="COMPLETE" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="FAILED" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="% Total" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="% COMPLETE" dataDxfId="82">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="% FAILED" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="% FAILED" dataDxfId="81">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17598,20 +17598,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table134591345" displayName="Table134591345" ref="B2:H5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table134591345" displayName="Table134591345" ref="B2:H5" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TOTAL" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="TOTAL" dataDxfId="77">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="COMPLETE" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="FAILED" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="% Total" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="% COMPLETE" dataDxfId="37">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="COMPLETE" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="FAILED" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="% Total" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="% COMPLETE" dataDxfId="73">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="% FAILED" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="% FAILED" dataDxfId="72">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17620,20 +17620,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table1345926" displayName="Table1345926" ref="B2:H5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table1345926" displayName="Table1345926" ref="B2:H5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TOTAL" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="TOTAL" dataDxfId="68">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="COMPLETE" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="FAILED" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="% Total" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="% COMPLETE" dataDxfId="46">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="COMPLETE" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="FAILED" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="% Total" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="% COMPLETE" dataDxfId="64">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="% FAILED" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="% FAILED" dataDxfId="63">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17664,20 +17664,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13459" displayName="Table13459" ref="B2:H5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13459" displayName="Table13459" ref="B2:H5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TOTAL" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="TOTAL" dataDxfId="50">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="COMPLETE" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="FAILED" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="% Total" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% COMPLETE" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="COMPLETE" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="FAILED" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="% Total" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% COMPLETE" dataDxfId="46">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="% FAILED" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="% FAILED" dataDxfId="45">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17686,20 +17686,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1345913458" displayName="Table1345913458" ref="B2:H5" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1345913458" displayName="Table1345913458" ref="B2:H5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TOTAL" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="TOTAL" dataDxfId="41">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="COMPLETE" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FAILED" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="% Total" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% COMPLETE" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="COMPLETE" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FAILED" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="% Total" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% COMPLETE" dataDxfId="37">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="% FAILED" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="% FAILED" dataDxfId="36">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17973,6 +17973,147 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>63</v>
+      </c>
+      <c r="D3" s="6">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.99968264043160904</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <f>D4+E4</f>
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>1.5867978419549351E-4</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <f>D5+E5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>1.5867978419549351E-4</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>63.019999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18018,17 +18159,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>67</v>
+        <v>563</v>
       </c>
       <c r="D3" s="6">
-        <v>67</v>
+        <v>563</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.9997015816174275</v>
+        <v>0.24414570685169124</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18043,19 +18184,19 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.01</v>
+        <v>420</v>
+      </c>
+      <c r="D4" s="6">
+        <v>420</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>1.4920919128618321E-4</v>
+        <v>0.18213356461405031</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18070,33 +18211,33 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.01</v>
+        <v>1323</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1321</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>1.4920919128618321E-4</v>
+        <v>0.57372072853425848</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.99848828420256996</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>1.5117157974300832E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>67.02000000000001</v>
+        <v>2306</v>
       </c>
     </row>
   </sheetData>
@@ -18109,8 +18250,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18159,25 +18300,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="D3" s="6">
-        <v>207</v>
+        <v>467</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.14526315789473684</v>
+        <v>0.2060067681895093</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.95893223819301843</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>4.1067761806981518E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18186,17 +18327,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D4" s="6">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.29473684210526313</v>
+        <v>0.18062605752961083</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18212,32 +18353,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>798</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1450</v>
       </c>
       <c r="D5" s="6">
-        <v>797</v>
+        <v>1425</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.56000000000000005</v>
+        <v>0.61336717428087983</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99874686716791983</v>
+        <v>0.98275862068965514</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.2531328320802004E-3</v>
+        <v>1.7241379310344827E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1425</v>
+        <v>2364</v>
       </c>
     </row>
   </sheetData>
@@ -18250,12 +18391,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18300,25 +18441,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>599</v>
+        <v>198</v>
       </c>
       <c r="D3" s="6">
-        <v>592</v>
+        <v>193</v>
       </c>
       <c r="E3" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.17939502845163222</v>
+        <v>0.16879795396419436</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98831385642737901</v>
+        <v>0.9747474747474747</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.1686143572621035E-2</v>
+        <v>2.5252525252525252E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18327,25 +18468,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="D4" s="6">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.11320754716981132</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99735449735449733</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.6455026455026454E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18354,31 +18495,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2362</v>
+        <v>703</v>
       </c>
       <c r="D5" s="6">
-        <v>2348</v>
+        <v>698</v>
       </c>
       <c r="E5" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.70739742437855646</v>
+        <v>0.59931798806479109</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99407281964436922</v>
+        <v>0.99288762446657186</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.9271803556308214E-3</v>
+        <v>7.1123755334281651E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>3339</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -18391,8 +18532,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18441,25 +18582,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.22241835834068843</v>
+        <v>0.10225763612217796</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99206349206349209</v>
+        <v>0.94805194805194803</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>7.9365079365079361E-3</v>
+        <v>5.1948051948051951E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18468,17 +18609,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="D4" s="6">
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.1650485436893204</v>
+        <v>0.27025232403718458</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18494,32 +18635,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>694</v>
+        <f>D5+E5</f>
+        <v>945</v>
       </c>
       <c r="D5" s="6">
-        <v>690</v>
+        <v>904</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61253309796999122</v>
+        <v>0.62749003984063745</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99423631123919309</v>
+        <v>0.95661375661375658</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.763688760806916E-3</v>
+        <v>4.3386243386243389E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1133</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -18532,12 +18673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18582,25 +18723,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>8.4527928818586257E-2</v>
+        <v>4.4903777619387027E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.94736842105263153</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18609,17 +18750,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="D4" s="6">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.17202174987642116</v>
+        <v>0.26514611546685674</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18636,31 +18777,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1504</v>
+        <v>968</v>
       </c>
       <c r="D5" s="6">
-        <v>1451</v>
+        <v>917</v>
       </c>
       <c r="E5" s="6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.74345032130499256</v>
+        <v>0.68995010691375624</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96476063829787229</v>
+        <v>0.9473140495867769</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.5239361702127658E-2</v>
+        <v>5.2685950413223138E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2023</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>
@@ -18673,12 +18814,151 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="D3" sqref="D3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>34</v>
+      </c>
+      <c r="D3" s="6">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>1.633045148895293E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>801</v>
+      </c>
+      <c r="D4" s="6">
+        <v>799</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.38472622478386165</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>0.99750312109862671</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>2.4968789013732834E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1247</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1232</v>
+      </c>
+      <c r="E5" s="6">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.59894332372718539</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.9879711307137129</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>1.2028869286287089E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>2082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18723,25 +19003,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>909</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6">
-        <v>868</v>
+        <v>109</v>
       </c>
       <c r="E3" s="6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.23996832101372756</v>
+        <v>9.6545615589016823E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.95489548954895487</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.5104510451045104E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18750,17 +19030,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="D4" s="6">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>8.0253431890179514E-2</v>
+        <v>0.30558015943312666</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18776,312 +19056,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>2575</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>675</v>
       </c>
       <c r="D5" s="6">
-        <v>2507</v>
+        <v>674</v>
       </c>
       <c r="E5" s="6">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.67977824709609291</v>
+        <v>0.59787422497785647</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97359223300970876</v>
+        <v>0.99851851851851847</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.6407766990291261E-2</v>
+        <v>1.4814814814814814E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>3788</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>33</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>1.6042780748663103E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.60606060606060608</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0.39393939393939392</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>772</v>
-      </c>
-      <c r="D4" s="6">
-        <v>772</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.37530384054448224</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1252</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1214</v>
-      </c>
-      <c r="E5" s="6">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.60865337870685465</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.96964856230031948</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>3.035143769968051E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>2057</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>199</v>
-      </c>
-      <c r="D3" s="6">
-        <v>199</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>0.14546783625730994</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>300</v>
-      </c>
-      <c r="D4" s="6">
-        <v>300</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.21929824561403508</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>869</v>
-      </c>
-      <c r="D5" s="6">
-        <v>867</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.63523391812865493</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.99769850402761795</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>2.3014959723820483E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>1368</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -19144,25 +19144,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>633</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6">
-        <v>624</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.23654708520179371</v>
+        <v>6.7592592592592593E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98578199052132698</v>
+        <v>0.98630136986301364</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.4218009478672985E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19171,25 +19171,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D4" s="6">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.11023916292974589</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99661016949152548</v>
+        <v>0.99298245614035086</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.3898305084745762E-3</v>
+        <v>7.0175438596491229E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19198,31 +19198,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1748</v>
+        <v>722</v>
       </c>
       <c r="D5" s="6">
-        <v>1702</v>
+        <v>711</v>
       </c>
       <c r="E5" s="6">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65321375186846042</v>
+        <v>0.66851851851851851</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97368421052631582</v>
+        <v>0.98476454293628812</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.6315789473684209E-2</v>
+        <v>1.5235457063711912E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2676</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -19239,7 +19239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -19285,25 +19285,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>112</v>
+        <v>3394</v>
       </c>
       <c r="D3" s="6">
-        <v>110</v>
+        <v>3382</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.2465142219743447E-2</v>
+        <v>0.42308651209174769</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9821428571428571</v>
+        <v>0.9964643488509134</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.7857142857142856E-2</v>
+        <v>3.5356511490866236E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19312,25 +19312,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="D4" s="6">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21193530395984383</v>
+        <v>5.9461480927449517E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99736842105263157</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.631578947368421E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19339,31 +19339,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1301</v>
+        <v>4151</v>
       </c>
       <c r="D5" s="6">
-        <v>1279</v>
+        <v>4137</v>
       </c>
       <c r="E5" s="6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.72559955382041275</v>
+        <v>0.51745200698080285</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98308993082244422</v>
+        <v>0.99662731871838106</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.6910069177555727E-2</v>
+        <v>3.3726812816188868E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1793</v>
+        <v>8022</v>
       </c>
     </row>
   </sheetData>
@@ -19426,17 +19426,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="D3" s="6">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>9.1200000000000003E-2</v>
+        <v>0.19096509240246407</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19453,17 +19453,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D4" s="6">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2928</v>
+        <v>0.24503764544832307</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19480,31 +19480,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="D5" s="6">
-        <v>770</v>
+        <v>823</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61599999999999999</v>
+        <v>0.56399726214921286</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.99878640776699024</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>1.2135922330097086E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1250</v>
+        <v>1461</v>
       </c>
     </row>
   </sheetData>
@@ -19521,7 +19521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -19565,25 +19565,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>3250</v>
+        <v>3417</v>
       </c>
       <c r="D3" s="6">
-        <v>3240</v>
+        <v>3396</v>
       </c>
       <c r="E3" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12280370300396751</v>
+        <v>0.15721910370847519</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99692307692307691</v>
+        <v>0.99385425812115891</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.0769230769230769E-3</v>
+        <v>6.145741878841089E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19592,25 +19592,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>5691</v>
+        <v>4927</v>
       </c>
       <c r="D4" s="6">
-        <v>5687</v>
+        <v>4926</v>
       </c>
       <c r="E4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21503873039863972</v>
+        <v>0.22669550013803258</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.9992971358285011</v>
+        <v>0.99979703673635067</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>7.0286417149885785E-4</v>
+        <v>2.0296326364927948E-4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19619,31 +19619,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>17524</v>
+        <v>13390</v>
       </c>
       <c r="D5" s="6">
-        <v>17457</v>
+        <v>13339</v>
       </c>
       <c r="E5" s="6">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66215756659739278</v>
+        <v>0.61608539615349223</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99617667199269577</v>
+        <v>0.99619118745332336</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.8233280073042683E-3</v>
+        <v>3.8088125466766245E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>26465</v>
+        <v>21734</v>
       </c>
     </row>
   </sheetData>
@@ -19706,17 +19706,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.21686746987951808</v>
+        <v>0.17355371900826447</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19733,17 +19733,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.19277108433734941</v>
+        <v>0.23966942148760331</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19760,17 +19760,17 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59036144578313254</v>
+        <v>0.58677685950413228</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -19784,7 +19784,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED6728-7AF7-4CCD-9318-4F18807EE2BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED420F6-9C97-45EA-B8A4-250CC74CA116}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3490,7 +3490,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>63</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
@@ -3558,10 +3558,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,13 +3653,13 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>63</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.01</c:v>
+                        <c:v>0.02</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.01</c:v>
+                        <c:v>0.02</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3981,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>563</c:v>
+                  <c:v>548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>420</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1321</c:v>
+                  <c:v>1324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,13 +4046,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,13 +4144,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>563</c:v>
+                        <c:v>549</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>420</c:v>
+                        <c:v>471</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1323</c:v>
+                        <c:v>1327</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4475,13 +4475,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>467</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1425</c:v>
+                  <c:v>1312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,13 +4540,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>25</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,13 +4637,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>487</c:v>
+                        <c:v>402</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>427</c:v>
+                        <c:v>433</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1450</c:v>
+                        <c:v>1318</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4965,13 +4965,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>698</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,13 +5032,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,13 +5131,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>198</c:v>
+                        <c:v>178</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>272</c:v>
+                        <c:v>269</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>703</c:v>
+                        <c:v>732</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5459,13 +5459,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>146</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>904</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,13 +5524,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>41</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>154</c:v>
+                        <c:v>109</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>407</c:v>
+                        <c:v>269</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>945</c:v>
+                        <c:v>576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5949,13 +5949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>917</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,13 +6014,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>51</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,13 +6111,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>63</c:v>
+                        <c:v>106</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>372</c:v>
+                        <c:v>344</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>968</c:v>
+                        <c:v>1180</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6442,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>799</c:v>
+                  <c:v>842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1232</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>34</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>801</c:v>
+                        <c:v>843</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1247</c:v>
+                        <c:v>1257</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6932,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>345</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,13 +7098,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>109</c:v>
+                        <c:v>175</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>345</c:v>
+                        <c:v>253</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>675</c:v>
+                        <c:v>1020</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7426,13 +7426,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>711</c:v>
+                  <c:v>18811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7494,10 +7494,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,13 +7588,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>73</c:v>
+                        <c:v>189</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>285</c:v>
+                        <c:v>394</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>722</c:v>
+                        <c:v>18981</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7916,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3382</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4137</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,13 +7981,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,13 +8079,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>3394</c:v>
+                        <c:v>97</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>477</c:v>
+                        <c:v>306</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4151</c:v>
+                        <c:v>735</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8407,13 +8407,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>358</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>823</c:v>
+                  <c:v>1943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8478,7 +8478,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,13 +8569,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>279</c:v>
+                        <c:v>442</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>358</c:v>
+                        <c:v>438</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>824</c:v>
+                        <c:v>1945</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8900,13 +8900,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3396</c:v>
+                  <c:v>2955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4926</c:v>
+                  <c:v>5887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13339</c:v>
+                  <c:v>15543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,13 +8965,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>21</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>51</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,13 +9062,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>3417</c:v>
+                        <c:v>2992</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4927</c:v>
+                        <c:v>5899</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>13390</c:v>
+                        <c:v>15625</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9390,13 +9390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,13 +9552,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>21</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29</c:v>
+                        <c:v>23</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>71</c:v>
+                        <c:v>61</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17973,147 +17973,6 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>63</v>
-      </c>
-      <c r="D3" s="6">
-        <v>63</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>0.99968264043160904</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <f>D4+E4</f>
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>1.5867978419549351E-4</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <f>D5+E5</f>
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>1.5867978419549351E-4</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>63.019999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18159,17 +18018,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>563</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6">
-        <v>563</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.24414570685169124</v>
+        <v>0.99913119026933084</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18184,60 +18043,60 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <f>D4+E4</f>
-        <v>420</v>
-      </c>
-      <c r="D4" s="6">
-        <v>420</v>
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.01</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.18213356461405031</v>
+        <v>4.3440486533449172E-4</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <f>D5+E5</f>
-        <v>1323</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1321</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.01</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57372072853425848</v>
+        <v>4.3440486533449172E-4</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99848828420256996</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.5117157974300832E-3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2306</v>
+        <v>46.040000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -18250,8 +18109,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18300,25 +18159,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="D3" s="6">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="E3" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.2060067681895093</v>
+        <v>0.23391563698338305</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.95893223819301843</v>
+        <v>0.99817850637522765</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.1067761806981518E-2</v>
+        <v>1.8214936247723133E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18327,17 +18186,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="D4" s="6">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.18062605752961083</v>
+        <v>0.20068172134639967</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18353,32 +18212,173 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1450</v>
+        <f>D5+E5</f>
+        <v>1327</v>
       </c>
       <c r="D5" s="6">
-        <v>1425</v>
+        <v>1324</v>
       </c>
       <c r="E5" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61336717428087983</v>
+        <v>0.56540264167021725</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98275862068965514</v>
+        <v>0.99773926149208747</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.7241379310344827E-2</v>
+        <v>2.2607385079125848E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2364</v>
+        <v>2347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>402</v>
+      </c>
+      <c r="D3" s="6">
+        <v>397</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.18671620993961913</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.98756218905472637</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>1.2437810945273632E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>433</v>
+      </c>
+      <c r="D4" s="6">
+        <v>429</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.20111472364143057</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>0.99076212471131642</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>9.2378752886836026E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1318</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1312</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.6121690664189503</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.99544764795144158</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>4.552352048558422E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
@@ -18441,25 +18441,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E3" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16879795396419436</v>
+        <v>0.15097540288379982</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9747474747474747</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>2.5252525252525252E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18468,17 +18468,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D4" s="6">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2318840579710145</v>
+        <v>0.22815945716709077</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18495,31 +18495,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="D5" s="6">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59931798806479109</v>
+        <v>0.62086513994910941</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99288762446657186</v>
+        <v>0.99863387978142082</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.1123755334281651E-3</v>
+        <v>1.366120218579235E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1173</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -18582,25 +18582,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E3" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.10225763612217796</v>
+        <v>0.11425576519916142</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.94805194805194803</v>
+        <v>0.99082568807339455</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.1948051948051951E-2</v>
+        <v>9.1743119266055051E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18609,17 +18609,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="D4" s="6">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.27025232403718458</v>
+        <v>0.28197064989517817</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18636,31 +18636,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>945</v>
+        <v>576</v>
       </c>
       <c r="D5" s="6">
-        <v>904</v>
+        <v>547</v>
       </c>
       <c r="E5" s="6">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62749003984063745</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.95661375661375658</v>
+        <v>0.94965277777777779</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.3386243386243389E-2</v>
+        <v>5.0347222222222224E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1506</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -18675,427 +18675,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>63</v>
-      </c>
-      <c r="D3" s="6">
-        <v>56</v>
-      </c>
-      <c r="E3" s="6">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>4.4903777619387027E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>372</v>
-      </c>
-      <c r="D4" s="6">
-        <v>372</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.26514611546685674</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>968</v>
-      </c>
-      <c r="D5" s="6">
-        <v>917</v>
-      </c>
-      <c r="E5" s="6">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.68995010691375624</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.9473140495867769</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>5.2685950413223138E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>1403</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>34</v>
-      </c>
-      <c r="D3" s="6">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>1.633045148895293E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0.23529411764705882</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>801</v>
-      </c>
-      <c r="D4" s="6">
-        <v>799</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.38472622478386165</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>0.99750312109862671</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>2.4968789013732834E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1247</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1232</v>
-      </c>
-      <c r="E5" s="6">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.59894332372718539</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.9879711307137129</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>1.2028869286287089E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>2082</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>109</v>
-      </c>
-      <c r="D3" s="6">
-        <v>109</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>9.6545615589016823E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>345</v>
-      </c>
-      <c r="D4" s="6">
-        <v>345</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.30558015943312666</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>675</v>
-      </c>
-      <c r="D5" s="6">
-        <v>674</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.59787422497785647</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.99851851851851847</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>1.4814814814814814E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>1129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19144,25 +18723,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.7592592592592593E-2</v>
+        <v>6.5030674846625766E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98630136986301364</v>
+        <v>0.91509433962264153</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.3698630136986301E-2</v>
+        <v>8.4905660377358486E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19171,25 +18750,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="D4" s="6">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2638888888888889</v>
+        <v>0.21104294478527608</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99298245614035086</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>7.0175438596491229E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19197,32 +18776,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>722</v>
+        <f>D5+E5</f>
+        <v>1180</v>
       </c>
       <c r="D5" s="6">
-        <v>711</v>
+        <v>1141</v>
       </c>
       <c r="E5" s="6">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66851851851851851</v>
+        <v>0.7239263803680982</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98476454293628812</v>
+        <v>0.9669491525423729</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.5235457063711912E-2</v>
+        <v>3.3050847457627118E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1080</v>
+        <v>1630</v>
       </c>
     </row>
   </sheetData>
@@ -19235,8 +18814,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>6.1523899668717462E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>843</v>
+      </c>
+      <c r="D4" s="6">
+        <v>842</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.39895882631329865</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>0.99881376037959668</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>1.1862396204033216E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1257</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1229</v>
+      </c>
+      <c r="E5" s="6">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.59488878371982967</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.97772474144789179</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>2.2275258552108195E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>2113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19285,25 +19003,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>3394</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6">
-        <v>3382</v>
+        <v>175</v>
       </c>
       <c r="E3" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.42308651209174769</v>
+        <v>0.12085635359116022</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9964643488509134</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.5356511490866236E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19312,17 +19030,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>477</v>
+        <v>253</v>
       </c>
       <c r="D4" s="6">
-        <v>477</v>
+        <v>253</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>5.9461480927449517E-2</v>
+        <v>0.17472375690607736</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19338,32 +19056,314 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>4151</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1020</v>
       </c>
       <c r="D5" s="6">
-        <v>4137</v>
+        <v>1019</v>
       </c>
       <c r="E5" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.51745200698080285</v>
+        <v>0.70441988950276246</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99662731871838106</v>
+        <v>0.99901960784313726</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.3726812816188868E-3</v>
+        <v>9.8039215686274508E-4</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>8022</v>
+        <v>1448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>189</v>
+      </c>
+      <c r="D3" s="6">
+        <v>188</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>9.6606011040686977E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.99470899470899465</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>5.2910052910052907E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>394</v>
+      </c>
+      <c r="D4" s="6">
+        <v>393</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>2.01390308730321E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>0.9974619289340102</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>2.5380710659898475E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>18981</v>
+      </c>
+      <c r="D5" s="6">
+        <v>18811</v>
+      </c>
+      <c r="E5" s="6">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.97020036802289922</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.99104367525420156</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>8.9563247457984298E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>19564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>97</v>
+      </c>
+      <c r="D3" s="6">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>8.5237258347978906E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.98969072164948457</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>306</v>
+      </c>
+      <c r="D4" s="6">
+        <v>306</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.26889279437609842</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>D5+E5</f>
+        <v>735</v>
+      </c>
+      <c r="D5" s="6">
+        <v>730</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.64586994727592262</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.99319727891156462</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>6.8027210884353739E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -19426,17 +19426,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>279</v>
+        <v>442</v>
       </c>
       <c r="D3" s="6">
-        <v>279</v>
+        <v>442</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.19096509240246407</v>
+        <v>0.15646017699115045</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19453,17 +19453,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="D4" s="6">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.24503764544832307</v>
+        <v>0.15504424778761061</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19480,31 +19480,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>824</v>
+        <v>1945</v>
       </c>
       <c r="D5" s="6">
-        <v>823</v>
+        <v>1943</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.56399726214921286</v>
+        <v>0.68849557522123894</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99878640776699024</v>
+        <v>0.99897172236503851</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.2135922330097086E-3</v>
+        <v>1.0282776349614395E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1461</v>
+        <v>2825</v>
       </c>
     </row>
   </sheetData>
@@ -19521,7 +19521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -19565,25 +19565,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>3417</v>
+        <v>2992</v>
       </c>
       <c r="D3" s="6">
-        <v>3396</v>
+        <v>2955</v>
       </c>
       <c r="E3" s="6">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15721910370847519</v>
+        <v>0.12204274759340838</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99385425812115891</v>
+        <v>0.98763368983957223</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>6.145741878841089E-3</v>
+        <v>1.2366310160427808E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19592,25 +19592,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>4927</v>
+        <v>5899</v>
       </c>
       <c r="D4" s="6">
-        <v>4926</v>
+        <v>5887</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.22669550013803258</v>
+        <v>0.2406183716756404</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99979703673635067</v>
+        <v>0.99796575690795053</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.0296326364927948E-4</v>
+        <v>2.0342430920494998E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19619,31 +19619,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>13390</v>
+        <v>15625</v>
       </c>
       <c r="D5" s="6">
-        <v>13339</v>
+        <v>15543</v>
       </c>
       <c r="E5" s="6">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61608539615349223</v>
+        <v>0.63733888073095124</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99619118745332336</v>
+        <v>0.99475199999999997</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.8088125466766245E-3</v>
+        <v>5.2480000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>21734</v>
+        <v>24516</v>
       </c>
     </row>
   </sheetData>
@@ -19706,17 +19706,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.17355371900826447</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19733,17 +19733,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.23966942148760331</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19760,17 +19760,17 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.58677685950413228</v>
+        <v>0.62244897959183676</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -19784,7 +19784,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED420F6-9C97-45EA-B8A4-250CC74CA116}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482AEE59-32A1-4997-BAC3-CB0F0E007B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId1"/>
@@ -28,6 +28,13 @@
     <sheet name="TURKS&amp;CAICOS" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3490,13 +3497,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1E-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,13 +3660,13 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>46</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.02</c:v>
+                        <c:v>1.00000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.02</c:v>
+                        <c:v>1.0000999999999999E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3981,13 +3988,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>548</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1324</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,13 +4053,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,13 +4151,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>549</c:v>
+                        <c:v>39</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>471</c:v>
+                        <c:v>413</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1327</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4475,13 +4482,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>397</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>429</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1312</c:v>
+                  <c:v>2764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,13 +4547,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,13 +4644,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>402</c:v>
+                        <c:v>297</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>433</c:v>
+                        <c:v>389</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1318</c:v>
+                        <c:v>2772</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4965,13 +4972,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>178</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>269</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>731</c:v>
+                  <c:v>1149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,13 +5039,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,13 +5138,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>178</c:v>
+                        <c:v>180</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>269</c:v>
+                        <c:v>232</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>732</c:v>
+                        <c:v>1160</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5459,13 +5466,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>269</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>547</c:v>
+                  <c:v>1272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,13 +5531,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>29</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5628,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>109</c:v>
+                        <c:v>160</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>269</c:v>
+                        <c:v>216</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>576</c:v>
+                        <c:v>1316</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5949,13 +5956,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1141</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,7 +6021,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6111,13 +6118,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>106</c:v>
+                        <c:v>76</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>344</c:v>
+                        <c:v>280</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1180</c:v>
+                        <c:v>932</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6442,13 +6449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>842</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1229</c:v>
+                  <c:v>1132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6514,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6611,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>13</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>843</c:v>
+                        <c:v>751</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1257</c:v>
+                        <c:v>1166</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6932,13 +6939,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1019</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7005,7 +7012,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,13 +7105,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>175</c:v>
+                        <c:v>127</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>253</c:v>
+                        <c:v>183</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1020</c:v>
+                        <c:v>544</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7426,13 +7433,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>188</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18811</c:v>
+                  <c:v>2288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,13 +7498,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>170</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,13 +7595,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>189</c:v>
+                        <c:v>639</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>394</c:v>
+                        <c:v>932</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>18981</c:v>
+                        <c:v>2312</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7916,13 +7923,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>306</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>730</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,7 +7988,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8079,13 +8086,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>97</c:v>
+                        <c:v>81</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>306</c:v>
+                        <c:v>278</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>735</c:v>
+                        <c:v>683</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8407,13 +8414,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>442</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1943</c:v>
+                  <c:v>801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8478,7 +8485,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,13 +8576,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>442</c:v>
+                        <c:v>145</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>438</c:v>
+                        <c:v>376</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1945</c:v>
+                        <c:v>804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8900,13 +8907,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2955</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5887</c:v>
+                  <c:v>6066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15543</c:v>
+                  <c:v>23671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,13 +8972,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>37</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>82</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,13 +9069,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2992</c:v>
+                        <c:v>1948</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5899</c:v>
+                        <c:v>6067</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>15625</c:v>
+                        <c:v>23710</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9390,13 +9397,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,13 +9559,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>23</c:v>
-                      </c:pt>
                       <c:pt idx="2">
-                        <c:v>61</c:v>
+                        <c:v>43</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17972,7 +17979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18018,17 +18025,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.99913119026933084</v>
+        <v>0.9995746278248705</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18045,25 +18052,25 @@
       </c>
       <c r="C4" s="8">
         <f>D4+E4</f>
-        <v>0.02</v>
+        <v>1.00000001E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>0.01</v>
+        <v>1E-10</v>
       </c>
       <c r="E4" s="7">
         <v>0.01</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>4.3440486533449172E-4</v>
+        <v>2.1267545485545038E-4</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.5</v>
+        <v>9.9999999000000018E-9</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0.5</v>
+        <v>0.99999999000000017</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18072,31 +18079,31 @@
       </c>
       <c r="C5" s="8">
         <f>D5+E5</f>
-        <v>0.02</v>
+        <v>1.0000999999999999E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>0.01</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E5" s="7">
         <v>0.01</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>4.3440486533449172E-4</v>
+        <v>2.1269672027396871E-4</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.5</v>
+        <v>9.9990000999900015E-5</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0.5</v>
+        <v>0.99990000999900019</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>46.040000000000006</v>
+        <v>47.020001000100002</v>
       </c>
     </row>
   </sheetData>
@@ -18159,25 +18166,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>549</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6">
-        <v>548</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.23391563698338305</v>
+        <v>3.7072243346007602E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99817850637522765</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.8214936247723133E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18186,17 +18193,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="D4" s="6">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.20068172134639967</v>
+        <v>0.39258555133079848</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18213,31 +18220,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1327</v>
+        <v>600</v>
       </c>
       <c r="D5" s="6">
-        <v>1324</v>
+        <v>599</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.56540264167021725</v>
+        <v>0.57034220532319391</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99773926149208747</v>
+        <v>0.99833333333333329</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.2607385079125848E-3</v>
+        <v>1.6666666666666668E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2347</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -18254,7 +18261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18300,25 +18307,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="D3" s="6">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="E3" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.18671620993961913</v>
+        <v>8.5887796414112205E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98756218905472637</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.2437810945273632E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18327,25 +18334,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D4" s="6">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="E4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.20111472364143057</v>
+        <v>0.11249277038750723</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99076212471131642</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>9.2378752886836026E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18354,31 +18361,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1318</v>
+        <v>2772</v>
       </c>
       <c r="D5" s="6">
-        <v>1312</v>
+        <v>2764</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.6121690664189503</v>
+        <v>0.80161943319838058</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99544764795144158</v>
+        <v>0.99711399711399706</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.552352048558422E-3</v>
+        <v>2.886002886002886E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2153</v>
+        <v>3458</v>
       </c>
     </row>
   </sheetData>
@@ -18395,7 +18402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18441,25 +18448,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15097540288379982</v>
+        <v>0.11450381679389313</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18468,25 +18475,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D4" s="6">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.22815945716709077</v>
+        <v>0.1475826972010178</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99137931034482762</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>8.6206896551724137E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18495,31 +18502,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>732</v>
+        <v>1160</v>
       </c>
       <c r="D5" s="6">
-        <v>731</v>
+        <v>1149</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62086513994910941</v>
+        <v>0.7379134860050891</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99863387978142082</v>
+        <v>0.9905172413793103</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.366120218579235E-3</v>
+        <v>9.482758620689655E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1179</v>
+        <v>1572</v>
       </c>
     </row>
   </sheetData>
@@ -18582,25 +18589,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D3" s="6">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.11425576519916142</v>
+        <v>9.4562647754137114E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99082568807339455</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>9.1743119266055051E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18609,25 +18616,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="D4" s="6">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.28197064989517817</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99537037037037035</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>4.6296296296296294E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18636,31 +18643,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>576</v>
+        <v>1316</v>
       </c>
       <c r="D5" s="6">
-        <v>547</v>
+        <v>1272</v>
       </c>
       <c r="E5" s="6">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.60377358490566035</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.94965277777777779</v>
+        <v>0.96656534954407292</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.0347222222222224E-2</v>
+        <v>3.3434650455927049E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>954</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -18723,25 +18730,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.5030674846625766E-2</v>
+        <v>5.9006211180124224E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.91509433962264153</v>
+        <v>0.93421052631578949</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.4905660377358486E-2</v>
+        <v>6.5789473684210523E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18750,17 +18757,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="D4" s="6">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21104294478527608</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18777,31 +18784,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1180</v>
+        <v>932</v>
       </c>
       <c r="D5" s="6">
-        <v>1141</v>
+        <v>893</v>
       </c>
       <c r="E5" s="6">
         <v>39</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.7239263803680982</v>
+        <v>0.72360248447204967</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9669491525423729</v>
+        <v>0.95815450643776823</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.3050847457627118E-2</v>
+        <v>4.1845493562231759E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1630</v>
+        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -18862,25 +18869,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
         <v>13</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>9</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.1523899668717462E-3</v>
+        <v>1.0325245224574084E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.30769230769230771</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.69230769230769229</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18889,25 +18896,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>843</v>
+        <v>751</v>
       </c>
       <c r="D4" s="6">
-        <v>842</v>
+        <v>751</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.39895882631329865</v>
+        <v>0.38771295818275686</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99881376037959668</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.1862396204033216E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18916,31 +18923,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1257</v>
+        <v>1166</v>
       </c>
       <c r="D5" s="6">
-        <v>1229</v>
+        <v>1132</v>
       </c>
       <c r="E5" s="6">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59488878371982967</v>
+        <v>0.60196179659266913</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97772474144789179</v>
+        <v>0.97084048027444259</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.2275258552108195E-2</v>
+        <v>2.9159519725557463E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>2113</v>
+        <v>1937</v>
       </c>
     </row>
   </sheetData>
@@ -19003,17 +19010,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="D3" s="6">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12085635359116022</v>
+        <v>0.14871194379391101</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19030,17 +19037,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="D4" s="6">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.17472375690607736</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19057,31 +19064,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1020</v>
+        <v>544</v>
       </c>
       <c r="D5" s="6">
-        <v>1019</v>
+        <v>540</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.70441988950276246</v>
+        <v>0.63700234192037475</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99901960784313726</v>
+        <v>0.99264705882352944</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>9.8039215686274508E-4</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1448</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -19099,147 +19106,6 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>189</v>
-      </c>
-      <c r="D3" s="6">
-        <v>188</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>9.6606011040686977E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.99470899470899465</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>5.2910052910052907E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>394</v>
-      </c>
-      <c r="D4" s="6">
-        <v>393</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>2.01390308730321E-2</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>0.9974619289340102</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>2.5380710659898475E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>18981</v>
-      </c>
-      <c r="D5" s="6">
-        <v>18811</v>
-      </c>
-      <c r="E5" s="6">
-        <v>170</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.97020036802289922</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.99104367525420156</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>8.9563247457984298E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>19564</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -19285,25 +19151,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>97</v>
+        <v>639</v>
       </c>
       <c r="D3" s="6">
-        <v>96</v>
+        <v>635</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>8.5237258347978906E-2</v>
+        <v>0.1645634818439351</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98969072164948457</v>
+        <v>0.99374021909233179</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.0309278350515464E-2</v>
+        <v>6.2597809076682318E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19312,25 +19178,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>306</v>
+        <v>932</v>
       </c>
       <c r="D4" s="6">
-        <v>306</v>
+        <v>929</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26889279437609842</v>
+        <v>0.24002060262683492</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99678111587982832</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>3.2188841201716738E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19338,32 +19204,173 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>735</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>2312</v>
       </c>
       <c r="D5" s="6">
-        <v>730</v>
+        <v>2288</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.64586994727592262</v>
+        <v>0.59541591552923001</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99319727891156462</v>
+        <v>0.98961937716262971</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.8027210884353739E-3</v>
+        <v>1.0380622837370242E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1138</v>
+        <v>3883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>81</v>
+      </c>
+      <c r="D3" s="6">
+        <v>77</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>7.7735124760076782E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.95061728395061729</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>4.9382716049382713E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>278</v>
+      </c>
+      <c r="D4" s="6">
+        <v>278</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.2667946257197697</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>D5+E5</f>
+        <v>683</v>
+      </c>
+      <c r="D5" s="6">
+        <v>678</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.65547024952015354</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.9926793557833089</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>7.320644216691069E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -19426,17 +19433,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>442</v>
+        <v>145</v>
       </c>
       <c r="D3" s="6">
-        <v>442</v>
+        <v>145</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15646017699115045</v>
+        <v>0.10943396226415095</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19453,17 +19460,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="D4" s="6">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.15504424778761061</v>
+        <v>0.2837735849056604</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19480,31 +19487,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1945</v>
+        <v>804</v>
       </c>
       <c r="D5" s="6">
-        <v>1943</v>
+        <v>801</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.68849557522123894</v>
+        <v>0.60679245283018868</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99897172236503851</v>
+        <v>0.99626865671641796</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.0282776349614395E-3</v>
+        <v>3.7313432835820895E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2825</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -19565,25 +19572,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>2992</v>
+        <v>1948</v>
       </c>
       <c r="D3" s="6">
-        <v>2955</v>
+        <v>1940</v>
       </c>
       <c r="E3" s="6">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12204274759340838</v>
+        <v>6.1402679275019703E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98763368983957223</v>
+        <v>0.9958932238193019</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.2366310160427808E-2</v>
+        <v>4.1067761806981521E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19592,25 +19599,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>5899</v>
+        <v>6067</v>
       </c>
       <c r="D4" s="6">
-        <v>5887</v>
+        <v>6066</v>
       </c>
       <c r="E4" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2406183716756404</v>
+        <v>0.19123719464144995</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99796575690795053</v>
+        <v>0.99983517389154442</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.0342430920494998E-3</v>
+        <v>1.6482610845557937E-4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19619,31 +19626,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>15625</v>
+        <v>23710</v>
       </c>
       <c r="D5" s="6">
-        <v>15543</v>
+        <v>23671</v>
       </c>
       <c r="E5" s="6">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.63733888073095124</v>
+        <v>0.74736012608353031</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99475199999999997</v>
+        <v>0.9983551244200759</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.2480000000000001E-3</v>
+        <v>1.6448755799240826E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>24516</v>
+        <v>31725</v>
       </c>
     </row>
   </sheetData>
@@ -19706,17 +19713,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19733,17 +19740,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.23469387755102042</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19760,17 +19767,17 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62244897959183676</v>
+        <v>0.61428571428571432</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -19784,7 +19791,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/ReporteSemanal/Condensado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482AEE59-32A1-4997-BAC3-CB0F0E007B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4FE5F-D31A-174C-83F4-D352030345A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="460" windowWidth="20500" windowHeight="9040" tabRatio="884" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId1"/>
@@ -23,18 +23,11 @@
     <sheet name="JAMAICA" sheetId="7" r:id="rId8"/>
     <sheet name="MONSERRAT" sheetId="17" r:id="rId9"/>
     <sheet name="SAINT VINCENT" sheetId="18" r:id="rId10"/>
-    <sheet name="SANTA LUCIA" sheetId="20" r:id="rId11"/>
-    <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId12"/>
-    <sheet name="TURKS&amp;CAICOS" sheetId="19" r:id="rId13"/>
+    <sheet name="TURKS&amp;CAICOS" sheetId="19" r:id="rId11"/>
+    <sheet name="SANTA LUCIA" sheetId="20" r:id="rId12"/>
+    <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -166,7 +159,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="119">
     <dxf>
@@ -3376,7 +3369,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3438,7 +3431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3497,13 +3490,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>47</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-10</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,13 +3555,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3660,13 +3653,13 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>47</c:v>
+                        <c:v>410</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.00000001E-2</c:v>
+                        <c:v>391</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.0000999999999999E-2</c:v>
+                        <c:v>1256</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3722,7 +3715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816577536"/>
@@ -3781,7 +3774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816572096"/>
@@ -3823,7 +3816,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3853,7 +3846,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3867,7 +3860,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3929,7 +3922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3988,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>2254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>413</c:v>
+                  <c:v>4008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599</c:v>
+                  <c:v>8381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,13 +4046,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,13 +4144,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>39</c:v>
+                        <c:v>2256</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>413</c:v>
+                        <c:v>4008</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>600</c:v>
+                        <c:v>8412</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4213,7 +4206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693270880"/>
@@ -4272,7 +4265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693262720"/>
@@ -4314,7 +4307,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4344,7 +4337,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4358,7 +4351,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4420,7 +4413,497 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMPLETE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TURKS&amp;CAICOS'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TURKS&amp;CAICOS'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="693275232"/>
+        <c:axId val="693260544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'TURKS&amp;CAICOS'!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'TURKS&amp;CAICOS'!$B$3:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>ACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DEACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MODIFY</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'TURKS&amp;CAICOS'!$C$3:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1329</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2479</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7605</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693275232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693260544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693260544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693275232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Mobile Orders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4482,13 +4965,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>297</c:v>
+                  <c:v>3382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>389</c:v>
+                  <c:v>3499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2764</c:v>
+                  <c:v>13477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,13 +5030,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,13 +5127,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>297</c:v>
+                        <c:v>3419</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>389</c:v>
+                        <c:v>3504</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2772</c:v>
+                        <c:v>13564</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4706,7 +5189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693274144"/>
@@ -4765,7 +5248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693261088"/>
@@ -4807,7 +5290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4837,7 +5320,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4848,10 +5331,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4913,7 +5396,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4972,13 +5455,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>174</c:v>
+                  <c:v>1654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1149</c:v>
+                  <c:v>6216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,13 +5522,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5138,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>180</c:v>
+                        <c:v>1706</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>232</c:v>
+                        <c:v>1790</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1160</c:v>
+                        <c:v>6292</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5200,7 +5683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693271424"/>
@@ -5259,7 +5742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693273600"/>
@@ -5301,7 +5784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5331,7 +5814,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5342,10 +5825,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5407,497 +5890,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COMPLETE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'TURKS&amp;CAICOS'!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1272</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'TURKS&amp;CAICOS'!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="693275232"/>
-        <c:axId val="693260544"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'TURKS&amp;CAICOS'!$C$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'TURKS&amp;CAICOS'!$B$3:$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>ACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DEACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>MODIFY</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'TURKS&amp;CAICOS'!$C$3:$C$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>216</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1316</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="693275232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693260544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="693260544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693275232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5956,13 +5949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>2322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280</c:v>
+                  <c:v>2627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>893</c:v>
+                  <c:v>9532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6021,13 +6014,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>39</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6118,13 +6111,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>76</c:v>
+                        <c:v>2466</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>280</c:v>
+                        <c:v>2627</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>932</c:v>
+                        <c:v>9882</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6180,7 +6173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816565568"/>
@@ -6239,7 +6232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816571008"/>
@@ -6281,7 +6274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6311,7 +6304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6325,7 +6318,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6387,7 +6380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6449,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751</c:v>
+                  <c:v>6428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1132</c:v>
+                  <c:v>16538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6514,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>34</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6611,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>20</c:v>
+                        <c:v>7205</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>751</c:v>
+                        <c:v>6431</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1166</c:v>
+                        <c:v>17146</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6673,7 +6666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816575360"/>
@@ -6732,7 +6725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816566112"/>
@@ -6774,7 +6767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6804,7 +6797,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6818,7 +6811,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6880,7 +6873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6939,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183</c:v>
+                  <c:v>2596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>540</c:v>
+                  <c:v>10964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,13 +6999,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7105,13 +7098,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>127</c:v>
+                        <c:v>1211</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>183</c:v>
+                        <c:v>2597</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>544</c:v>
+                        <c:v>10989</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7167,7 +7160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816570464"/>
@@ -7226,7 +7219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816569920"/>
@@ -7268,7 +7261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7298,7 +7291,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7312,7 +7305,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7374,7 +7367,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7433,13 +7426,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>635</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>929</c:v>
+                  <c:v>3145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2288</c:v>
+                  <c:v>30360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7498,13 +7491,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>24</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,13 +7588,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>639</c:v>
+                        <c:v>1984</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>932</c:v>
+                        <c:v>3158</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2312</c:v>
+                        <c:v>30787</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7657,7 +7650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816574272"/>
@@ -7716,7 +7709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816567200"/>
@@ -7758,7 +7751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7788,7 +7781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7802,7 +7795,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7864,7 +7857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7923,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>4609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278</c:v>
+                  <c:v>3177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>678</c:v>
+                  <c:v>11169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7988,13 +7981,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8086,13 +8079,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>81</c:v>
+                        <c:v>4647</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>278</c:v>
+                        <c:v>3188</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>683</c:v>
+                        <c:v>11250</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8148,7 +8141,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816566656"/>
@@ -8207,7 +8200,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816573728"/>
@@ -8249,7 +8242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8279,7 +8272,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8293,7 +8286,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8355,7 +8348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8414,13 +8407,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>376</c:v>
+                  <c:v>3157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>801</c:v>
+                  <c:v>8106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8479,13 +8472,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8576,13 +8569,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>145</c:v>
+                        <c:v>1428</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>376</c:v>
+                        <c:v>3158</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>804</c:v>
+                        <c:v>8129</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8638,7 +8631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816562848"/>
@@ -8697,7 +8690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816573184"/>
@@ -8739,7 +8732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8769,7 +8762,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8783,7 +8776,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8845,7 +8838,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8907,13 +8900,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1940</c:v>
+                  <c:v>24436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6066</c:v>
+                  <c:v>47739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23671</c:v>
+                  <c:v>143526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,13 +8965,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>39</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9069,13 +9062,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1948</c:v>
+                        <c:v>24566</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6067</c:v>
+                        <c:v>47770</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>23710</c:v>
+                        <c:v>143946</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9131,7 +9124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="467634176"/>
@@ -9190,7 +9183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="467627648"/>
@@ -9232,7 +9225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9262,7 +9255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9276,7 +9269,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9338,7 +9331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9397,13 +9390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9468,7 +9461,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,13 +9552,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>13</c:v>
+                        <c:v>135</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>14</c:v>
+                        <c:v>174</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>43</c:v>
+                        <c:v>499</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9621,7 +9614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693268160"/>
@@ -9680,7 +9673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693263808"/>
@@ -9722,7 +9715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9752,7 +9745,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9844,6 +9837,43 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9883,46 +9913,9 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -16975,7 +16968,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17018,7 +17011,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17061,7 +17054,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17473,6 +17466,28 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="5">
+      <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1">
+      <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="0">
+      <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
@@ -17494,7 +17509,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="7">
@@ -17513,28 +17528,6 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="5">
-      <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1">
-      <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="0">
-      <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -17979,24 +17972,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18019,91 +18012,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="D3" s="6">
-        <v>47</v>
+        <v>409</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.9995746278248705</v>
+        <v>0.19931939718035974</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.9975609756097561</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>2.4390243902439024E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8">
         <f>D4+E4</f>
-        <v>1.00000001E-2</v>
+        <v>391</v>
       </c>
       <c r="D4" s="7">
-        <v>1E-10</v>
+        <v>390</v>
       </c>
       <c r="E4" s="7">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>2.1267545485545038E-4</v>
+        <v>0.19008264462809918</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>9.9999999000000018E-9</v>
+        <v>0.99744245524296671</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0.99999999000000017</v>
+        <v>2.5575447570332483E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8">
         <f>D5+E5</f>
-        <v>1.0000999999999999E-2</v>
+        <v>1256</v>
       </c>
       <c r="D5" s="7">
-        <v>9.9999999999999995E-7</v>
+        <v>1229</v>
       </c>
       <c r="E5" s="7">
-        <v>0.01</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>2.1269672027396871E-4</v>
+        <v>0.61059795819154106</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>9.9990000999900015E-5</v>
+        <v>0.97850318471337583</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0.99990000999900019</v>
+        <v>2.1496815286624203E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>47.020001000100002</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
@@ -18124,20 +18117,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18160,50 +18153,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>39</v>
+        <v>2256</v>
       </c>
       <c r="D3" s="6">
-        <v>39</v>
+        <v>2254</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>3.7072243346007602E-2</v>
+        <v>0.15372035977105478</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.99911347517730498</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>8.8652482269503544E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>413</v>
+        <v>4008</v>
       </c>
       <c r="D4" s="6">
-        <v>413</v>
+        <v>4008</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.39258555133079848</v>
+        <v>0.27309893704006544</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18214,37 +18207,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>600</v>
+        <v>8412</v>
       </c>
       <c r="D5" s="6">
-        <v>599</v>
+        <v>8381</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57034220532319391</v>
+        <v>0.57318070318887981</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99833333333333329</v>
+        <v>0.9963147883975273</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.6666666666666668E-3</v>
+        <v>3.685211602472658E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1052</v>
+        <v>14676</v>
       </c>
     </row>
   </sheetData>
@@ -18258,27 +18251,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18301,91 +18294,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>297</v>
+        <v>1329</v>
       </c>
       <c r="D3" s="6">
-        <v>297</v>
+        <v>1239</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>8.5887796414112205E-2</v>
+        <v>0.1164461578901253</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.93227990970654628</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>6.772009029345373E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>389</v>
+        <v>2479</v>
       </c>
       <c r="D4" s="6">
-        <v>389</v>
+        <v>2477</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.11249277038750723</v>
+        <v>0.21720844650836765</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99919322307382008</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>8.0677692617991124E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2772</v>
+        <f>D5+E5</f>
+        <v>7605</v>
       </c>
       <c r="D5" s="6">
-        <v>2764</v>
+        <v>7133</v>
       </c>
       <c r="E5" s="6">
-        <v>8</v>
+        <v>472</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.80161943319838058</v>
+        <v>0.66634539560150707</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99711399711399706</v>
+        <v>0.93793556870479944</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.886002886002886E-3</v>
+        <v>6.2064431295200527E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>3458</v>
+        <v>11413</v>
       </c>
     </row>
   </sheetData>
@@ -18399,27 +18392,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18442,91 +18435,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>180</v>
+        <v>3419</v>
       </c>
       <c r="D3" s="6">
-        <v>174</v>
+        <v>3382</v>
       </c>
       <c r="E3" s="6">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.11450381679389313</v>
+        <v>0.16688631815297506</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.96666666666666667</v>
+        <v>0.98917812225797019</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.3333333333333333E-2</v>
+        <v>1.0821877742029834E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>232</v>
+        <v>3504</v>
       </c>
       <c r="D4" s="6">
-        <v>230</v>
+        <v>3499</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.1475826972010178</v>
+        <v>0.17103529067213355</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99137931034482762</v>
+        <v>0.9985730593607306</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>8.6206896551724137E-3</v>
+        <v>1.4269406392694063E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1160</v>
+        <v>13564</v>
       </c>
       <c r="D5" s="6">
-        <v>1149</v>
+        <v>13477</v>
       </c>
       <c r="E5" s="6">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.7379134860050891</v>
+        <v>0.66207839117489142</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9905172413793103</v>
+        <v>0.99358596284281919</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>9.482758620689655E-3</v>
+        <v>6.4140371571807728E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1572</v>
+        <v>20487</v>
       </c>
     </row>
   </sheetData>
@@ -18540,27 +18533,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18583,91 +18576,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>160</v>
+        <v>1706</v>
       </c>
       <c r="D3" s="6">
-        <v>156</v>
+        <v>1654</v>
       </c>
       <c r="E3" s="6">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>9.4562647754137114E-2</v>
+        <v>0.17429505516959543</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.97499999999999998</v>
+        <v>0.96951934349355218</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.048065650644783E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>216</v>
+        <v>1790</v>
       </c>
       <c r="D4" s="6">
-        <v>215</v>
+        <v>1788</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.1276595744680851</v>
+        <v>0.18287699223539028</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99537037037037035</v>
+        <v>0.99888268156424576</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>4.6296296296296294E-3</v>
+        <v>1.1173184357541898E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>1316</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>6292</v>
       </c>
       <c r="D5" s="6">
-        <v>1272</v>
+        <v>6216</v>
       </c>
       <c r="E5" s="6">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.77777777777777779</v>
+        <v>0.64282795259501435</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96656534954407292</v>
+        <v>0.98792116973935151</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.3434650455927049E-2</v>
+        <v>1.2078830260648443E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1692</v>
+        <v>9788</v>
       </c>
     </row>
   </sheetData>
@@ -18684,24 +18677,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18724,50 +18717,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>76</v>
+        <v>2466</v>
       </c>
       <c r="D3" s="6">
-        <v>71</v>
+        <v>2322</v>
       </c>
       <c r="E3" s="6">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>5.9006211180124224E-2</v>
+        <v>0.1646744574290484</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.93421052631578949</v>
+        <v>0.94160583941605835</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>6.5789473684210523E-2</v>
+        <v>5.8394160583941604E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>280</v>
+        <v>2627</v>
       </c>
       <c r="D4" s="6">
-        <v>280</v>
+        <v>2627</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21739130434782608</v>
+        <v>0.17542570951585976</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18778,37 +18771,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>932</v>
+        <v>9882</v>
       </c>
       <c r="D5" s="6">
-        <v>893</v>
+        <v>9532</v>
       </c>
       <c r="E5" s="6">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.72360248447204967</v>
+        <v>0.65989983305509181</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.95815450643776823</v>
+        <v>0.96458206840720506</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.1845493562231759E-2</v>
+        <v>3.5417931592794979E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1288</v>
+        <v>14975</v>
       </c>
     </row>
   </sheetData>
@@ -18829,18 +18822,18 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18863,91 +18856,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>20</v>
+        <v>7205</v>
       </c>
       <c r="D3" s="6">
-        <v>7</v>
+        <v>6794</v>
       </c>
       <c r="E3" s="6">
-        <v>13</v>
+        <v>411</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>1.0325245224574084E-2</v>
+        <v>0.23406536287440713</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.35</v>
+        <v>0.94295628036086054</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.65</v>
+        <v>5.7043719639139484E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>751</v>
+        <v>6431</v>
       </c>
       <c r="D4" s="6">
-        <v>751</v>
+        <v>6428</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.38771295818275686</v>
+        <v>0.2089207978688844</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99953350956305398</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>4.6649043694604262E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1166</v>
+        <v>17146</v>
       </c>
       <c r="D5" s="6">
-        <v>1132</v>
+        <v>16538</v>
       </c>
       <c r="E5" s="6">
-        <v>34</v>
+        <v>608</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.60196179659266913</v>
+        <v>0.55701383925670844</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97084048027444259</v>
+        <v>0.96453983436369994</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.9159519725557463E-2</v>
+        <v>3.5460165636300015E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>1937</v>
+        <v>30782</v>
       </c>
     </row>
   </sheetData>
@@ -18968,20 +18961,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19004,91 +18997,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>127</v>
+        <v>1211</v>
       </c>
       <c r="D3" s="6">
-        <v>127</v>
+        <v>1210</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.14871194379391101</v>
+        <v>8.184091369872272E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.9991742361684558</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>8.2576383154417832E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>183</v>
+        <v>2597</v>
       </c>
       <c r="D4" s="6">
-        <v>183</v>
+        <v>2596</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21428571428571427</v>
+        <v>0.17550854903020882</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99961494031574893</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>3.850596842510589E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>544</v>
+        <v>10989</v>
       </c>
       <c r="D5" s="6">
-        <v>540</v>
+        <v>10964</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.63700234192037475</v>
+        <v>0.74265053727106844</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99264705882352944</v>
+        <v>0.99772499772499768</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.3529411764705881E-3</v>
+        <v>2.2750022750022752E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>854</v>
+        <v>14797</v>
       </c>
     </row>
   </sheetData>
@@ -19109,20 +19102,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19145,91 +19138,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>639</v>
+        <v>1984</v>
       </c>
       <c r="D3" s="6">
-        <v>635</v>
+        <v>1966</v>
       </c>
       <c r="E3" s="6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.1645634818439351</v>
+        <v>5.5220017256255395E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99374021909233179</v>
+        <v>0.99092741935483875</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>6.2597809076682318E-3</v>
+        <v>9.0725806451612909E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>932</v>
+        <v>3158</v>
       </c>
       <c r="D4" s="6">
-        <v>929</v>
+        <v>3145</v>
       </c>
       <c r="E4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.24002060262683492</v>
+        <v>8.7895571822204907E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99678111587982832</v>
+        <v>0.99588347055098159</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.2188841201716738E-3</v>
+        <v>4.1165294490183657E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2312</v>
+        <v>30787</v>
       </c>
       <c r="D5" s="6">
-        <v>2288</v>
+        <v>30360</v>
       </c>
       <c r="E5" s="6">
-        <v>24</v>
+        <v>427</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59541591552923001</v>
+        <v>0.85688441092153966</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98961937716262971</v>
+        <v>0.98613050963068827</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.0380622837370242E-2</v>
+        <v>1.3869490369311722E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>3883</v>
+        <v>35929</v>
       </c>
     </row>
   </sheetData>
@@ -19250,20 +19243,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19286,91 +19279,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>81</v>
+        <v>4647</v>
       </c>
       <c r="D3" s="6">
-        <v>77</v>
+        <v>4609</v>
       </c>
       <c r="E3" s="6">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>7.7735124760076782E-2</v>
+        <v>0.24348965155881583</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.95061728395061729</v>
+        <v>0.99182268129976325</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.9382716049382713E-2</v>
+        <v>8.1773187002367118E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>278</v>
+        <v>3188</v>
       </c>
       <c r="D4" s="6">
-        <v>278</v>
+        <v>3177</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2667946257197697</v>
+        <v>0.16704217972229499</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99654956085319946</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>3.4504391468005019E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>683</v>
+        <v>11250</v>
       </c>
       <c r="D5" s="6">
-        <v>678</v>
+        <v>11169</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65547024952015354</v>
+        <v>0.58946816871888918</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9926793557833089</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.320644216691069E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1042</v>
+        <v>19085</v>
       </c>
     </row>
   </sheetData>
@@ -19387,24 +19380,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19427,91 +19420,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>145</v>
+        <v>1428</v>
       </c>
       <c r="D3" s="6">
-        <v>145</v>
+        <v>1427</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.10943396226415095</v>
+        <v>0.11230829728666929</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.99929971988795518</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>7.0028011204481793E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>376</v>
+        <v>3158</v>
       </c>
       <c r="D4" s="6">
-        <v>376</v>
+        <v>3157</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2837735849056604</v>
+        <v>0.24836806920959498</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99968334388853708</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>3.1665611146295124E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>804</v>
+        <v>8129</v>
       </c>
       <c r="D5" s="6">
-        <v>801</v>
+        <v>8106</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.60679245283018868</v>
+        <v>0.63932363350373578</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99626865671641796</v>
+        <v>0.99717062369295117</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.7313432835820895E-3</v>
+        <v>2.8293763070488375E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1325</v>
+        <v>12715</v>
       </c>
     </row>
   </sheetData>
@@ -19532,18 +19525,18 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19566,91 +19559,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1948</v>
+        <v>24566</v>
       </c>
       <c r="D3" s="6">
-        <v>1940</v>
+        <v>24436</v>
       </c>
       <c r="E3" s="6">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.1402679275019703E-2</v>
+        <v>0.11358319231373855</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9958932238193019</v>
+        <v>0.99470813319221685</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.1067761806981521E-3</v>
+        <v>5.2918668077831148E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>6067</v>
+        <v>47770</v>
       </c>
       <c r="D4" s="6">
-        <v>6066</v>
+        <v>47739</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.19123719464144995</v>
+        <v>0.22086905059135759</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99983517389154442</v>
+        <v>0.99935105714883821</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.6482610845557937E-4</v>
+        <v>6.4894285116181703E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>23710</v>
+        <v>143946</v>
       </c>
       <c r="D5" s="6">
-        <v>23671</v>
+        <v>143526</v>
       </c>
       <c r="E5" s="6">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.74736012608353031</v>
+        <v>0.66554775709490388</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9983551244200759</v>
+        <v>0.99708223917302319</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.6448755799240826E-3</v>
+        <v>2.9177608269767828E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>31725</v>
+        <v>216282</v>
       </c>
     </row>
   </sheetData>
@@ -19671,20 +19664,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19707,23 +19700,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D3" s="6">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.18571428571428572</v>
+        <v>0.16707920792079209</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19734,23 +19727,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2</v>
+        <v>0.21534653465346534</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19761,37 +19754,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>43</v>
+        <v>499</v>
       </c>
       <c r="D5" s="6">
-        <v>43</v>
+        <v>496</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61428571428571432</v>
+        <v>0.61757425742574257</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.9939879759519038</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>6.0120240480961923E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>70</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/ReporteSemanal/Condensado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4FE5F-D31A-174C-83F4-D352030345A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA124FE2-4609-4E75-8A45-3D2D58B72B16}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="460" windowWidth="20500" windowHeight="9040" tabRatio="884" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="456" windowWidth="20496" windowHeight="9036" tabRatio="884" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId1"/>
@@ -28,6 +28,13 @@
     <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -159,257 +166,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="119">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -821,6 +580,254 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFC9C9C9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </top>
@@ -3369,7 +3376,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3431,7 +3438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3487,16 +3494,16 @@
             <c:numRef>
               <c:f>ANGUILLA!$D$3:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>409</c:v>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1229</c:v>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3555,13 +3562,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,13 +3660,13 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>410</c:v>
+                        <c:v>52</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>391</c:v>
+                        <c:v>0.01</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1256</c:v>
+                        <c:v>0.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3715,7 +3722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816577536"/>
@@ -3774,7 +3781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816572096"/>
@@ -3816,7 +3823,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3846,7 +3853,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3860,7 +3867,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3922,7 +3929,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3981,13 +3988,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2254</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4008</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8381</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,13 +4053,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>31</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,13 +4151,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2256</c:v>
+                        <c:v>527</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4008</c:v>
+                        <c:v>136</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>8412</c:v>
+                        <c:v>814</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4206,7 +4213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693270880"/>
@@ -4265,7 +4272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693262720"/>
@@ -4307,7 +4314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4337,7 +4344,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4351,7 +4358,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4413,7 +4420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4472,13 +4479,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1239</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2477</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7133</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4537,13 +4544,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>90</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>472</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4634,13 +4641,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1329</c:v>
+                        <c:v>188</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2479</c:v>
+                        <c:v>94</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7605</c:v>
+                        <c:v>993</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4696,7 +4703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693260544"/>
@@ -4755,7 +4762,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693275232"/>
@@ -4797,7 +4804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4827,7 +4834,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4841,7 +4848,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4903,7 +4910,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4965,13 +4972,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3382</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3499</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13477</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,13 +5037,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>37</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>87</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5127,13 +5134,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>3419</c:v>
+                        <c:v>546</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3504</c:v>
+                        <c:v>148</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>13564</c:v>
+                        <c:v>1177</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5189,7 +5196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693274144"/>
@@ -5248,7 +5255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693261088"/>
@@ -5290,7 +5297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5320,7 +5327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5334,7 +5341,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5396,7 +5403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5455,13 +5462,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1654</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1788</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6216</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,13 +5529,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>52</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>76</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5628,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1706</c:v>
+                        <c:v>144</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1790</c:v>
+                        <c:v>115</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6292</c:v>
+                        <c:v>631</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5683,7 +5690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693271424"/>
@@ -5742,7 +5749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693273600"/>
@@ -5784,7 +5791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5814,7 +5821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5828,7 +5835,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5890,7 +5897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5949,13 +5956,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2322</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2627</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9532</c:v>
+                  <c:v>1782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,13 +6021,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>144</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>350</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,13 +6118,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2466</c:v>
+                        <c:v>78</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2627</c:v>
+                        <c:v>206</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>9882</c:v>
+                        <c:v>1811</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6173,7 +6180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816565568"/>
@@ -6232,7 +6239,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816571008"/>
@@ -6274,7 +6281,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6304,7 +6311,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6318,7 +6325,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6380,7 +6387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6442,13 +6449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6794</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6428</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16538</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6514,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>411</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>608</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6611,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>7205</c:v>
+                        <c:v>42</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6431</c:v>
+                        <c:v>252</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17146</c:v>
+                        <c:v>636</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6666,7 +6673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816575360"/>
@@ -6725,7 +6732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816566112"/>
@@ -6767,7 +6774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6797,7 +6804,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6811,7 +6818,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6873,7 +6880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6932,13 +6939,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1210</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2596</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10964</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,13 +7006,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,13 +7105,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1211</c:v>
+                        <c:v>184</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2597</c:v>
+                        <c:v>118</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10989</c:v>
+                        <c:v>505</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7160,7 +7167,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816570464"/>
@@ -7219,7 +7226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816569920"/>
@@ -7261,7 +7268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7291,7 +7298,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7305,7 +7312,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7367,7 +7374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7426,13 +7433,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1966</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3145</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30360</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,13 +7498,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>427</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,13 +7595,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1984</c:v>
+                        <c:v>2078</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3158</c:v>
+                        <c:v>138</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>30787</c:v>
+                        <c:v>2970</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7650,7 +7657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816574272"/>
@@ -7709,7 +7716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816567200"/>
@@ -7751,7 +7758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7781,7 +7788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7795,7 +7802,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7857,7 +7864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7916,13 +7923,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4609</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3177</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11169</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,13 +7988,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>81</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,13 +8086,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4647</c:v>
+                        <c:v>98</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3188</c:v>
+                        <c:v>101</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11250</c:v>
+                        <c:v>848</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8141,7 +8148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816566656"/>
@@ -8200,7 +8207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816573728"/>
@@ -8242,7 +8249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8272,7 +8279,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8286,7 +8293,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8348,7 +8355,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8407,13 +8414,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1427</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3157</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8106</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8472,13 +8479,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,13 +8576,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1428</c:v>
+                        <c:v>314</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3158</c:v>
+                        <c:v>140</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>8129</c:v>
+                        <c:v>676</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8631,7 +8638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816562848"/>
@@ -8690,7 +8697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816573184"/>
@@ -8732,7 +8739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8762,7 +8769,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8776,7 +8783,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8838,7 +8845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8900,13 +8907,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24436</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47739</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143526</c:v>
+                  <c:v>9846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,13 +8972,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>130</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>420</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,13 +9069,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>24566</c:v>
+                        <c:v>2530</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>47770</c:v>
+                        <c:v>2281</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>143946</c:v>
+                        <c:v>10300</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9124,7 +9131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="467634176"/>
@@ -9183,7 +9190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="467627648"/>
@@ -9225,7 +9232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9255,7 +9262,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9269,7 +9276,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9331,7 +9338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9390,13 +9397,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>496</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9461,7 +9468,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,13 +9559,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>135</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>174</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>499</c:v>
+                        <c:v>60</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9614,7 +9621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693268160"/>
@@ -9673,7 +9680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693263808"/>
@@ -9715,7 +9722,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9745,7 +9752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17466,20 +17473,20 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="23">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="19">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="18">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17488,20 +17495,20 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134591312" displayName="Table134591312" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TOTAL" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TOTAL" dataDxfId="14">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="COMPLETE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FAILED" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% Total" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="COMPLETE" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FAILED" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% Total" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="10">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="% FAILED" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="% FAILED" dataDxfId="9">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17510,20 +17517,20 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="5">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="1">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="0">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17972,24 +17979,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18012,91 +18019,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>410</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6">
-        <v>409</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.19931939718035974</v>
+        <v>0.9996155324875049</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9975609756097561</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>2.4390243902439024E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8">
         <f>D4+E4</f>
-        <v>391</v>
-      </c>
-      <c r="D4" s="7">
-        <v>390</v>
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.19008264462809918</v>
+        <v>1.9223375624759708E-4</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99744245524296671</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>2.5575447570332483E-3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8">
         <f>D5+E5</f>
-        <v>1256</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="7">
-        <v>1229</v>
-      </c>
-      <c r="E5" s="7">
-        <v>27</v>
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61059795819154106</v>
+        <v>1.9223375624759708E-4</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97850318471337583</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.1496815286624203E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2057</v>
+        <v>52.019999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -18117,20 +18124,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18153,50 +18160,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>2256</v>
+        <v>527</v>
       </c>
       <c r="D3" s="6">
-        <v>2254</v>
+        <v>527</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15372035977105478</v>
+        <v>0.35680433310765064</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99911347517730498</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.8652482269503544E-4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>4008</v>
+        <v>136</v>
       </c>
       <c r="D4" s="6">
-        <v>4008</v>
+        <v>136</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.27309893704006544</v>
+        <v>9.2078537576167907E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18207,37 +18214,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>8412</v>
+        <v>814</v>
       </c>
       <c r="D5" s="6">
-        <v>8381</v>
+        <v>808</v>
       </c>
       <c r="E5" s="6">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57318070318887981</v>
+        <v>0.5511171293161814</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9963147883975273</v>
+        <v>0.99262899262899262</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.685211602472658E-3</v>
+        <v>7.3710073710073713E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>14676</v>
+        <v>1477</v>
       </c>
     </row>
   </sheetData>
@@ -18258,20 +18265,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18294,91 +18301,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1329</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6">
-        <v>1239</v>
+        <v>185</v>
       </c>
       <c r="E3" s="6">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.1164461578901253</v>
+        <v>0.14745098039215687</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.93227990970654628</v>
+        <v>0.98404255319148937</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>6.772009029345373E-2</v>
+        <v>1.5957446808510637E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>2479</v>
+        <v>94</v>
       </c>
       <c r="D4" s="6">
-        <v>2477</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21720844650836765</v>
+        <v>7.3725490196078436E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99919322307382008</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>8.0677692617991124E-4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>7605</v>
+        <v>993</v>
       </c>
       <c r="D5" s="6">
-        <v>7133</v>
+        <v>989</v>
       </c>
       <c r="E5" s="6">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66634539560150707</v>
+        <v>0.77882352941176469</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.93793556870479944</v>
+        <v>0.99597180261832829</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.2064431295200527E-2</v>
+        <v>4.0281973816717019E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>11413</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -18399,20 +18406,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18435,91 +18442,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>3419</v>
+        <v>546</v>
       </c>
       <c r="D3" s="6">
-        <v>3382</v>
+        <v>545</v>
       </c>
       <c r="E3" s="6">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16688631815297506</v>
+        <v>0.29182255478353819</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98917812225797019</v>
+        <v>0.99816849816849818</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.0821877742029834E-2</v>
+        <v>1.8315018315018315E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>3504</v>
+        <v>148</v>
       </c>
       <c r="D4" s="6">
-        <v>3499</v>
+        <v>148</v>
       </c>
       <c r="E4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.17103529067213355</v>
+        <v>7.9102084446819876E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.9985730593607306</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.4269406392694063E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>13564</v>
+        <v>1177</v>
       </c>
       <c r="D5" s="6">
-        <v>13477</v>
+        <v>1170</v>
       </c>
       <c r="E5" s="6">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66207839117489142</v>
+        <v>0.62907536076964188</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99358596284281919</v>
+        <v>0.99405267629566696</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.4140371571807728E-3</v>
+        <v>5.9473237043330502E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>20487</v>
+        <v>1871</v>
       </c>
     </row>
   </sheetData>
@@ -18540,20 +18547,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18576,91 +18583,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1706</v>
+        <v>144</v>
       </c>
       <c r="D3" s="6">
-        <v>1654</v>
+        <v>136</v>
       </c>
       <c r="E3" s="6">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.17429505516959543</v>
+        <v>0.16179775280898875</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.96951934349355218</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.048065650644783E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>1790</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6">
-        <v>1788</v>
+        <v>115</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.18287699223539028</v>
+        <v>0.12921348314606743</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99888268156424576</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1.1173184357541898E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>6292</v>
+        <v>631</v>
       </c>
       <c r="D5" s="6">
-        <v>6216</v>
+        <v>596</v>
       </c>
       <c r="E5" s="6">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.64282795259501435</v>
+        <v>0.70898876404494382</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98792116973935151</v>
+        <v>0.94453248811410462</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.2078830260648443E-2</v>
+        <v>5.5467511885895403E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>9788</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -18681,20 +18688,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18717,50 +18724,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>2466</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6">
-        <v>2322</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.1646744574290484</v>
+        <v>3.7231503579952266E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.94160583941605835</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.8394160583941604E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>2627</v>
+        <v>206</v>
       </c>
       <c r="D4" s="6">
-        <v>2627</v>
+        <v>206</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.17542570951585976</v>
+        <v>9.8329355608591879E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18771,37 +18778,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>9882</v>
+        <v>1811</v>
       </c>
       <c r="D5" s="6">
-        <v>9532</v>
+        <v>1782</v>
       </c>
       <c r="E5" s="6">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65989983305509181</v>
+        <v>0.8644391408114559</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96458206840720506</v>
+        <v>0.98398674765323024</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.5417931592794979E-2</v>
+        <v>1.601325234676974E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>14975</v>
+        <v>2095</v>
       </c>
     </row>
   </sheetData>
@@ -18822,18 +18829,18 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18856,91 +18863,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>7205</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6">
-        <v>6794</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>411</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.23406536287440713</v>
+        <v>4.5161290322580643E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.94295628036086054</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.7043719639139484E-2</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>6431</v>
+        <v>252</v>
       </c>
       <c r="D4" s="6">
-        <v>6428</v>
+        <v>252</v>
       </c>
       <c r="E4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2089207978688844</v>
+        <v>0.2709677419354839</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99953350956305398</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>4.6649043694604262E-4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>17146</v>
+        <v>636</v>
       </c>
       <c r="D5" s="6">
-        <v>16538</v>
+        <v>576</v>
       </c>
       <c r="E5" s="6">
-        <v>608</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.55701383925670844</v>
+        <v>0.68387096774193545</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96453983436369994</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.5460165636300015E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>30782</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -18961,20 +18968,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18997,91 +19004,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1211</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6">
-        <v>1210</v>
+        <v>182</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>8.184091369872272E-2</v>
+        <v>0.22800495662949194</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9991742361684558</v>
+        <v>0.98913043478260865</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.2576383154417832E-4</v>
+        <v>1.0869565217391304E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>2597</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6">
-        <v>2596</v>
+        <v>118</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.17550854903020882</v>
+        <v>0.14622057001239158</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99961494031574893</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.850596842510589E-4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>10989</v>
+        <v>505</v>
       </c>
       <c r="D5" s="6">
-        <v>10964</v>
+        <v>492</v>
       </c>
       <c r="E5" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.74265053727106844</v>
+        <v>0.62577447335811653</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99772499772499768</v>
+        <v>0.97425742574257423</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.2750022750022752E-3</v>
+        <v>2.5742574257425741E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>14797</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -19102,20 +19109,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19138,91 +19145,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1984</v>
+        <v>2078</v>
       </c>
       <c r="D3" s="6">
-        <v>1966</v>
+        <v>1063</v>
       </c>
       <c r="E3" s="6">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>5.5220017256255395E-2</v>
+        <v>0.40069417662938683</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99092741935483875</v>
+        <v>0.51154956689124154</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>9.0725806451612909E-3</v>
+        <v>0.48845043310875841</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>3158</v>
+        <v>138</v>
       </c>
       <c r="D4" s="6">
-        <v>3145</v>
+        <v>137</v>
       </c>
       <c r="E4" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>8.7895571822204907E-2</v>
+        <v>2.6610104126494408E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99588347055098159</v>
+        <v>0.99275362318840576</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>4.1165294490183657E-3</v>
+        <v>7.246376811594203E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>30787</v>
+        <v>2970</v>
       </c>
       <c r="D5" s="6">
-        <v>30360</v>
+        <v>1926</v>
       </c>
       <c r="E5" s="6">
-        <v>427</v>
+        <v>1044</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.85688441092153966</v>
+        <v>0.57269571924411877</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98613050963068827</v>
+        <v>0.64848484848484844</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.3869490369311722E-2</v>
+        <v>0.3515151515151515</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>35929</v>
+        <v>5186</v>
       </c>
     </row>
   </sheetData>
@@ -19243,20 +19250,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19279,91 +19286,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>4647</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6">
-        <v>4609</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.24348965155881583</v>
+        <v>9.3600764087870103E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99182268129976325</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.1773187002367118E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>3188</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6">
-        <v>3177</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.16704217972229499</v>
+        <v>9.6466093600764094E-2</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99654956085319946</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.4504391468005019E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>11250</v>
+        <v>848</v>
       </c>
       <c r="D5" s="6">
-        <v>11169</v>
+        <v>843</v>
       </c>
       <c r="E5" s="6">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.58946816871888918</v>
+        <v>0.80993314231136582</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99280000000000002</v>
+        <v>0.99410377358490565</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.1999999999999998E-3</v>
+        <v>5.89622641509434E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>19085</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -19380,24 +19387,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19420,91 +19427,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1428</v>
+        <v>314</v>
       </c>
       <c r="D3" s="6">
-        <v>1427</v>
+        <v>314</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.11230829728666929</v>
+        <v>0.27787610619469028</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99929971988795518</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>7.0028011204481793E-4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>3158</v>
+        <v>140</v>
       </c>
       <c r="D4" s="6">
-        <v>3157</v>
+        <v>140</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.24836806920959498</v>
+        <v>0.12389380530973451</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99968334388853708</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.1665611146295124E-4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>8129</v>
+        <v>676</v>
       </c>
       <c r="D5" s="6">
-        <v>8106</v>
+        <v>671</v>
       </c>
       <c r="E5" s="6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.63932363350373578</v>
+        <v>0.59823008849557524</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99717062369295117</v>
+        <v>0.99260355029585801</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.8293763070488375E-3</v>
+        <v>7.3964497041420114E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>12715</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -19525,18 +19532,18 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19559,91 +19566,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>24566</v>
+        <v>2530</v>
       </c>
       <c r="D3" s="6">
-        <v>24436</v>
+        <v>2230</v>
       </c>
       <c r="E3" s="6">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.11358319231373855</v>
+        <v>0.16742770167427701</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99470813319221685</v>
+        <v>0.88142292490118579</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.2918668077831148E-3</v>
+        <v>0.11857707509881422</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>47770</v>
+        <v>2281</v>
       </c>
       <c r="D4" s="6">
-        <v>47739</v>
+        <v>2274</v>
       </c>
       <c r="E4" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.22086905059135759</v>
+        <v>0.15094963933558336</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99935105714883821</v>
+        <v>0.99693117053923719</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>6.4894285116181703E-4</v>
+        <v>3.0688294607628232E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>143946</v>
+        <v>10300</v>
       </c>
       <c r="D5" s="6">
-        <v>143526</v>
+        <v>9846</v>
       </c>
       <c r="E5" s="6">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66554775709490388</v>
+        <v>0.68162265899013963</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99708223917302319</v>
+        <v>0.95592233009708738</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.9177608269767828E-3</v>
+        <v>4.407766990291262E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>216282</v>
+        <v>15111</v>
       </c>
     </row>
   </sheetData>
@@ -19660,24 +19667,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19700,23 +19707,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16707920792079209</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19727,23 +19734,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.21534653465346534</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19754,37 +19761,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>499</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6">
-        <v>496</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.61757425742574257</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9939879759519038</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>6.0120240480961923E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>808</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Condensado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/ReporteSemanal/Condensado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA124FE2-4609-4E75-8A45-3D2D58B72B16}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128EFF3-9276-264E-BEC9-3D330D88FC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="456" windowWidth="20496" windowHeight="9036" tabRatio="884" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="560" windowWidth="20500" windowHeight="9040" tabRatio="884" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId1"/>
@@ -22,19 +22,12 @@
     <sheet name="GRENADA" sheetId="16" r:id="rId7"/>
     <sheet name="JAMAICA" sheetId="7" r:id="rId8"/>
     <sheet name="MONSERRAT" sheetId="17" r:id="rId9"/>
-    <sheet name="SAINT VINCENT" sheetId="18" r:id="rId10"/>
-    <sheet name="TURKS&amp;CAICOS" sheetId="19" r:id="rId11"/>
+    <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId10"/>
+    <sheet name="SAINT VINCENT" sheetId="18" r:id="rId11"/>
     <sheet name="SANTA LUCIA" sheetId="20" r:id="rId12"/>
-    <sheet name="Saint Kitts and Nevis" sheetId="21" r:id="rId13"/>
+    <sheet name="TURKS&amp;CAICOS" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -166,7 +159,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="119">
     <dxf>
@@ -3376,7 +3369,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3438,7 +3431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3497,13 +3490,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3558,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
@@ -3660,7 +3653,7 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>52</c:v>
+                        <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.01</c:v>
@@ -3722,7 +3715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816577536"/>
@@ -3781,7 +3774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816572096"/>
@@ -3823,7 +3816,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3853,7 +3846,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3867,1481 +3860,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SAINT VINCENT'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COMPLETE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SAINT VINCENT'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SAINT VINCENT'!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SAINT VINCENT'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SAINT VINCENT'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SAINT VINCENT'!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="693262720"/>
-        <c:axId val="693270880"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'SAINT VINCENT'!$C$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'SAINT VINCENT'!$B$3:$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>ACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DEACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>MODIFY</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'SAINT VINCENT'!$C$3:$C$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>527</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>136</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>814</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="693262720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693270880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="693270880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693262720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COMPLETE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'TURKS&amp;CAICOS'!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'TURKS&amp;CAICOS'!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="693275232"/>
-        <c:axId val="693260544"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'TURKS&amp;CAICOS'!$C$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'TURKS&amp;CAICOS'!$B$3:$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>ACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DEACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>MODIFY</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'TURKS&amp;CAICOS'!$C$3:$C$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>188</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>993</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="693275232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693260544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="693260544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693275232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SANTA LUCIA'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COMPLETE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SANTA LUCIA'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SANTA LUCIA'!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1170</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SANTA LUCIA'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SANTA LUCIA'!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DEACTIVATE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MODIFY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SANTA LUCIA'!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="693261088"/>
-        <c:axId val="693274144"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'SANTA LUCIA'!$C$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'SANTA LUCIA'!$B$3:$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>ACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DEACTIVATE</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>MODIFY</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'SANTA LUCIA'!$C$3:$C$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>546</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>148</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1177</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="693261088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693274144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="693274144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693261088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5403,7 +3922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5462,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>596</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,13 +4048,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>35</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5628,13 +4147,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>144</c:v>
+                        <c:v>693</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>115</c:v>
+                        <c:v>324</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>631</c:v>
+                        <c:v>1289</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5690,7 +4209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693271424"/>
@@ -5749,7 +4268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693273600"/>
@@ -5791,7 +4310,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5821,7 +4340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5832,10 +4351,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5897,7 +4416,1481 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SAINT VINCENT'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMPLETE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SAINT VINCENT'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SAINT VINCENT'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SAINT VINCENT'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SAINT VINCENT'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SAINT VINCENT'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="693262720"/>
+        <c:axId val="693270880"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SAINT VINCENT'!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SAINT VINCENT'!$B$3:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>ACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DEACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MODIFY</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SAINT VINCENT'!$C$3:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>535</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>699</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1395</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693262720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693270880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693270880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693262720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Mobile Orders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SANTA LUCIA'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMPLETE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SANTA LUCIA'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SANTA LUCIA'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CC5-4D75-B1C1-25AB62337C2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SANTA LUCIA'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SANTA LUCIA'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SANTA LUCIA'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CC5-4D75-B1C1-25AB62337C2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="693261088"/>
+        <c:axId val="693274144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SANTA LUCIA'!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SANTA LUCIA'!$B$3:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>ACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DEACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MODIFY</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SANTA LUCIA'!$C$3:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>292</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>596</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1383</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8CC5-4D75-B1C1-25AB62337C2C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693261088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693274144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693274144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693261088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Mobile Orders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMPLETE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TURKS&amp;CAICOS'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-157A-404F-AB28-35328C66B853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TURKS&amp;CAICOS'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEACTIVATE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MODIFY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TURKS&amp;CAICOS'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-157A-404F-AB28-35328C66B853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="693275232"/>
+        <c:axId val="693260544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'TURKS&amp;CAICOS'!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'TURKS&amp;CAICOS'!$B$3:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>ACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DEACTIVATE</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MODIFY</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'TURKS&amp;CAICOS'!$C$3:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>242</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>349</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>790</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-157A-404F-AB28-35328C66B853}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693275232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693260544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693260544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693275232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Mobile Orders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5956,13 +5949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1782</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6021,13 +6014,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>29</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6118,13 +6111,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>78</c:v>
+                        <c:v>368</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>206</c:v>
+                        <c:v>782</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1811</c:v>
+                        <c:v>1634</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6180,7 +6173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816565568"/>
@@ -6239,7 +6232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816571008"/>
@@ -6281,7 +6274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6311,7 +6304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6325,7 +6318,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6387,7 +6380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6449,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>576</c:v>
+                  <c:v>1666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6514,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>60</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6611,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>42</c:v>
+                        <c:v>19</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>252</c:v>
+                        <c:v>1257</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>636</c:v>
+                        <c:v>1697</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6673,7 +6666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816575360"/>
@@ -6732,7 +6725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816566112"/>
@@ -6774,7 +6767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6804,7 +6797,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6818,7 +6811,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6880,7 +6873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6939,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>182</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>492</c:v>
+                  <c:v>2272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,13 +6999,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7105,13 +7098,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>184</c:v>
+                        <c:v>128</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>118</c:v>
+                        <c:v>308</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>505</c:v>
+                        <c:v>2275</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7167,7 +7160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816570464"/>
@@ -7226,7 +7219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816569920"/>
@@ -7268,7 +7261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7298,7 +7291,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7312,7 +7305,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7374,7 +7367,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7433,13 +7426,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1063</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1926</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7498,13 +7491,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1015</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1044</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,13 +7588,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2078</c:v>
+                        <c:v>129</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>138</c:v>
+                        <c:v>483</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2970</c:v>
+                        <c:v>1231</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7657,7 +7650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816574272"/>
@@ -7716,7 +7709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816567200"/>
@@ -7758,7 +7751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7788,7 +7781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7802,7 +7795,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7864,7 +7857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7923,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>843</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,7 +7987,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8086,13 +8079,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>98</c:v>
+                        <c:v>64</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>101</c:v>
+                        <c:v>420</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>848</c:v>
+                        <c:v>863</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8148,7 +8141,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816566656"/>
@@ -8207,7 +8200,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816573728"/>
@@ -8249,7 +8242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8279,7 +8272,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8293,7 +8286,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8355,7 +8348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8414,13 +8407,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>314</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>671</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8485,7 +8478,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8576,13 +8569,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>314</c:v>
+                        <c:v>319</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>140</c:v>
+                        <c:v>517</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>676</c:v>
+                        <c:v>1014</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8638,7 +8631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816562848"/>
@@ -8697,7 +8690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816573184"/>
@@ -8739,7 +8732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8769,7 +8762,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8783,7 +8776,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8845,7 +8838,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8907,13 +8900,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2230</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2274</c:v>
+                  <c:v>9114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9846</c:v>
+                  <c:v>18790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,13 +8965,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>300</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>454</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9069,13 +9062,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>2530</c:v>
+                        <c:v>1458</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2281</c:v>
+                        <c:v>9400</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10300</c:v>
+                        <c:v>19197</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9131,7 +9124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="467634176"/>
@@ -9190,7 +9183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="467627648"/>
@@ -9232,7 +9225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9262,7 +9255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9276,7 +9269,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9338,7 +9331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9397,13 +9390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,13 +9552,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>20</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12</c:v>
+                        <c:v>26</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>60</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9621,7 +9614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693268160"/>
@@ -9680,7 +9673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="693263808"/>
@@ -9722,7 +9715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9752,7 +9745,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9804,6 +9797,12 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9811,43 +9810,6 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -9921,8 +9883,39 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -10704,7 +10697,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10812,6 +10805,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10822,6 +10820,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10853,6 +10856,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11207,7 +11213,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11315,11 +11321,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11330,11 +11331,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11366,9 +11362,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16932,7 +16925,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16975,7 +16968,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17061,7 +17054,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17451,6 +17444,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="5">
+      <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="1">
+      <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="0">
+      <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
@@ -17469,28 +17484,6 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="23">
-      <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="19">
-      <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="18">
-      <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -17517,24 +17510,24 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="23">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="19">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="18">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -17980,23 +17973,23 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18019,23 +18012,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.9996155324875049</v>
+        <v>0.99941211052322176</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18046,23 +18039,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8">
-        <f>D4+E4</f>
         <v>0.01</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>1.9223375624759708E-4</v>
+        <v>2.9394473838918289E-4</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18070,40 +18062,39 @@
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8">
-        <f>D5+E5</f>
         <v>0.01</v>
       </c>
       <c r="D5" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>1.9223375624759708E-4</v>
+        <v>2.9394473838918289E-4</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>52.019999999999996</v>
+        <v>34.019999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -18117,27 +18108,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18160,50 +18151,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>527</v>
+        <v>693</v>
       </c>
       <c r="D3" s="6">
-        <v>527</v>
+        <v>240</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.35680433310765064</v>
+        <v>0.30052038161318301</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.34632034632034631</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>0.65367965367965364</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="D4" s="6">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>9.2078537576167907E-2</v>
+        <v>0.14050303555941024</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18214,37 +18205,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>814</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1289</v>
       </c>
       <c r="D5" s="6">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>453</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.5511171293161814</v>
+        <v>0.55897658282740681</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99262899262899262</v>
+        <v>0.64856477889837083</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.3710073710073713E-3</v>
+        <v>0.35143522110162917</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1477</v>
+        <v>2306</v>
       </c>
     </row>
   </sheetData>
@@ -18258,27 +18249,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18301,50 +18292,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>188</v>
+        <v>535</v>
       </c>
       <c r="D3" s="6">
-        <v>185</v>
+        <v>535</v>
       </c>
       <c r="E3" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.14745098039215687</v>
+        <v>0.20349942944085203</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98404255319148937</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.5957446808510637E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>94</v>
+        <v>699</v>
       </c>
       <c r="D4" s="6">
-        <v>94</v>
+        <v>699</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>7.3725490196078436E-2</v>
+        <v>0.26588056295169266</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18355,37 +18346,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>993</v>
+        <v>1395</v>
       </c>
       <c r="D5" s="6">
-        <v>989</v>
+        <v>1391</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.77882352941176469</v>
+        <v>0.53062000760745531</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99597180261832829</v>
+        <v>0.99713261648745521</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.0281973816717019E-3</v>
+        <v>2.8673835125448029E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1275</v>
+        <v>2629</v>
       </c>
     </row>
   </sheetData>
@@ -18406,20 +18397,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18442,50 +18433,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>546</v>
+        <v>292</v>
       </c>
       <c r="D3" s="6">
-        <v>545</v>
+        <v>292</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.29182255478353819</v>
+        <v>0.12857771906649054</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99816849816849818</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.8315018315018315E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>148</v>
+        <v>596</v>
       </c>
       <c r="D4" s="6">
-        <v>148</v>
+        <v>596</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>7.9102084446819876E-2</v>
+        <v>0.2624394539850286</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18496,37 +18487,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1177</v>
+        <v>1383</v>
       </c>
       <c r="D5" s="6">
-        <v>1170</v>
+        <v>1377</v>
       </c>
       <c r="E5" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62907536076964188</v>
+        <v>0.60898282694848083</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99405267629566696</v>
+        <v>0.99566160520607372</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.9473237043330502E-3</v>
+        <v>4.3383947939262474E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1871</v>
+        <v>2271</v>
       </c>
     </row>
   </sheetData>
@@ -18540,27 +18531,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18583,50 +18574,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="D3" s="6">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="E3" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16179775280898875</v>
+        <v>0.17523533671252717</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.94444444444444442</v>
+        <v>0.99586776859504134</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.1322314049586778E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="D4" s="6">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.12921348314606743</v>
+        <v>0.25271542360608257</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18637,37 +18628,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>631</v>
+        <f>D5+E5</f>
+        <v>790</v>
       </c>
       <c r="D5" s="6">
-        <v>596</v>
+        <v>771</v>
       </c>
       <c r="E5" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.70898876404494382</v>
+        <v>0.57204923968139032</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.94453248811410462</v>
+        <v>0.97594936708860758</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.5467511885895403E-2</v>
+        <v>2.4050632911392405E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>890</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -18684,24 +18675,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18724,50 +18715,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="D3" s="6">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="E3" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>3.7231503579952266E-2</v>
+        <v>0.13218390804597702</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.92307692307692313</v>
+        <v>0.96739130434782605</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>7.6923076923076927E-2</v>
+        <v>3.2608695652173912E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>206</v>
+        <v>782</v>
       </c>
       <c r="D4" s="6">
-        <v>206</v>
+        <v>782</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>9.8329355608591879E-2</v>
+        <v>0.28089080459770116</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18778,37 +18769,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1811</v>
+        <v>1634</v>
       </c>
       <c r="D5" s="6">
-        <v>1782</v>
+        <v>1596</v>
       </c>
       <c r="E5" s="6">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.8644391408114559</v>
+        <v>0.58692528735632188</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98398674765323024</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.601325234676974E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2095</v>
+        <v>2784</v>
       </c>
     </row>
   </sheetData>
@@ -18829,18 +18820,18 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -18863,50 +18854,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.5161290322580643E-2</v>
+        <v>6.390850992263707E-3</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.2857142857142857</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.7142857142857143</v>
+        <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>252</v>
+        <v>1257</v>
       </c>
       <c r="D4" s="6">
-        <v>252</v>
+        <v>1257</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2709677419354839</v>
+        <v>0.42280524722502522</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18917,37 +18908,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>636</v>
+        <v>1697</v>
       </c>
       <c r="D5" s="6">
-        <v>576</v>
+        <v>1666</v>
       </c>
       <c r="E5" s="6">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.68387096774193545</v>
+        <v>0.57080390178271112</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.90566037735849059</v>
+        <v>0.98173246906305245</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>9.4339622641509441E-2</v>
+        <v>1.8267530936947555E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>930</v>
+        <v>2973</v>
       </c>
     </row>
   </sheetData>
@@ -18968,20 +18959,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19004,91 +18995,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="D3" s="6">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.22800495662949194</v>
+        <v>4.7215049797122835E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98913043478260865</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.0869565217391304E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="D4" s="6">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.14622057001239158</v>
+        <v>0.11361121357432681</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99675324675324672</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>3.246753246753247E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>505</v>
+        <v>2275</v>
       </c>
       <c r="D5" s="6">
-        <v>492</v>
+        <v>2272</v>
       </c>
       <c r="E5" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62577447335811653</v>
+        <v>0.83917373662855033</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97425742574257423</v>
+        <v>0.99868131868131871</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.5742574257425741E-2</v>
+        <v>1.3186813186813187E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>807</v>
+        <v>2711</v>
       </c>
     </row>
   </sheetData>
@@ -19109,20 +19100,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19145,91 +19136,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>2078</v>
+        <v>129</v>
       </c>
       <c r="D3" s="6">
-        <v>1063</v>
+        <v>109</v>
       </c>
       <c r="E3" s="6">
-        <v>1015</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.40069417662938683</v>
+        <v>6.9994574064026038E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.51154956689124154</v>
+        <v>0.84496124031007747</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.48845043310875841</v>
+        <v>0.15503875968992248</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>138</v>
+        <v>483</v>
       </c>
       <c r="D4" s="6">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>2.6610104126494408E-2</v>
+        <v>0.26207270754205103</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99275362318840576</v>
+        <v>0.90890269151138714</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>7.246376811594203E-3</v>
+        <v>9.1097308488612833E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2970</v>
+        <v>1231</v>
       </c>
       <c r="D5" s="6">
-        <v>1926</v>
+        <v>1135</v>
       </c>
       <c r="E5" s="6">
-        <v>1044</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57269571924411877</v>
+        <v>0.66793271839392299</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.64848484848484844</v>
+        <v>0.92201462225832653</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0.3515151515151515</v>
+        <v>7.798537774167344E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>5186</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -19250,20 +19241,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19286,23 +19277,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>9.3600764087870103E-2</v>
+        <v>4.7512991833704527E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19313,23 +19304,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>101</v>
+        <v>420</v>
       </c>
       <c r="D4" s="6">
-        <v>101</v>
+        <v>420</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>9.6466093600764094E-2</v>
+        <v>0.31180400890868598</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19340,37 +19331,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="D5" s="6">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.80993314231136582</v>
+        <v>0.64068299925760952</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99410377358490565</v>
+        <v>0.99536500579374276</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>5.89622641509434E-3</v>
+        <v>4.6349942062572421E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1047</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -19391,20 +19382,20 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19427,23 +19418,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D3" s="6">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.27787610619469028</v>
+        <v>0.17243243243243242</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19454,23 +19445,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>140</v>
+        <v>517</v>
       </c>
       <c r="D4" s="6">
-        <v>140</v>
+        <v>517</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.12389380530973451</v>
+        <v>0.27945945945945944</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19481,37 +19472,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>676</v>
+        <v>1014</v>
       </c>
       <c r="D5" s="6">
-        <v>671</v>
+        <v>1014</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.59823008849557524</v>
+        <v>0.54810810810810806</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99260355029585801</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.3964497041420114E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1130</v>
+        <v>1850</v>
       </c>
     </row>
   </sheetData>
@@ -19532,18 +19523,18 @@
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19566,91 +19557,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>2530</v>
+        <v>1458</v>
       </c>
       <c r="D3" s="6">
-        <v>2230</v>
+        <v>1374</v>
       </c>
       <c r="E3" s="6">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16742770167427701</v>
+        <v>4.8511063051073035E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.88142292490118579</v>
+        <v>0.9423868312757202</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.11857707509881422</v>
+        <v>5.7613168724279837E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>2281</v>
+        <v>9400</v>
       </c>
       <c r="D4" s="6">
-        <v>2274</v>
+        <v>9114</v>
       </c>
       <c r="E4" s="7">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.15094963933558336</v>
+        <v>0.31275994010979868</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99693117053923719</v>
+        <v>0.96957446808510639</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.0688294607628232E-3</v>
+        <v>3.0425531914893618E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>10300</v>
+        <v>19197</v>
       </c>
       <c r="D5" s="6">
-        <v>9846</v>
+        <v>18790</v>
       </c>
       <c r="E5" s="6">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.68162265899013963</v>
+        <v>0.63872899683912832</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.95592233009708738</v>
+        <v>0.97879877064124599</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.407766990291262E-2</v>
+        <v>2.1201229358753973E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>15111</v>
+        <v>30055</v>
       </c>
     </row>
   </sheetData>
@@ -19667,24 +19658,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="6"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19707,23 +19698,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.21739130434782608</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19734,23 +19725,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.13043478260869565</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19761,23 +19752,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65217391304347827</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -19788,10 +19779,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/ReporteSemanal/Condensado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128EFF3-9276-264E-BEC9-3D330D88FC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FC573-F3BC-5349-B242-688BBBE96A76}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="560" windowWidth="20500" windowHeight="9040" tabRatio="884" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGUILLA" sheetId="9" r:id="rId1"/>
@@ -261,7 +261,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
           <color rgb="FFC9C9C9"/>
@@ -272,6 +272,8 @@
         <bottom style="medium">
           <color rgb="FFC9C9C9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -285,7 +287,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
           <color rgb="FFC9C9C9"/>
@@ -296,6 +298,8 @@
         <bottom style="medium">
           <color rgb="FFC9C9C9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -309,15 +313,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </top>
         <bottom style="medium">
           <color rgb="FFC9C9C9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -334,7 +342,9 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
+        <right style="medium">
+          <color rgb="FFC9C9C9"/>
+        </right>
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </top>
@@ -985,7 +995,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color rgb="FFC9C9C9"/>
@@ -996,8 +1006,6 @@
         <bottom style="medium">
           <color rgb="FFC9C9C9"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1011,7 +1019,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color rgb="FFC9C9C9"/>
@@ -1022,8 +1030,6 @@
         <bottom style="medium">
           <color rgb="FFC9C9C9"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1037,19 +1043,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </top>
         <bottom style="medium">
           <color rgb="FFC9C9C9"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1066,9 +1068,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="medium">
-          <color rgb="FFC9C9C9"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </top>
@@ -3401,7 +3401,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Anguilla</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3490,12 +3490,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3653,7 +3653,7 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>34</c:v>
+                        <c:v>51</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.01</c:v>
@@ -3892,7 +3892,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Saint Kitts and Nevis</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3981,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>324</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>836</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,13 +4048,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>453</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>453</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,13 +4147,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>693</c:v>
+                        <c:v>174</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>324</c:v>
+                        <c:v>191</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1289</c:v>
+                        <c:v>681</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4386,7 +4386,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Saint Vincent</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4475,13 +4475,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>535</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>699</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1391</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,7 +4546,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,13 +4638,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>535</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>699</c:v>
+                        <c:v>393</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1395</c:v>
+                        <c:v>570</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4877,7 +4877,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Santa Lucia</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4969,13 +4969,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>292</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>596</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1377</c:v>
+                  <c:v>2227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5034,13 +5034,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,13 +5131,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>292</c:v>
+                        <c:v>309</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>596</c:v>
+                        <c:v>319</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1383</c:v>
+                        <c:v>2235</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5370,7 +5370,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Turks and Caicos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5459,13 +5459,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>241</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>771</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,13 +5524,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>19</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>242</c:v>
+                        <c:v>208</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>349</c:v>
+                        <c:v>283</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>790</c:v>
+                        <c:v>883</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5860,7 +5860,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Antigua</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5949,13 +5949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>356</c:v>
+                  <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>782</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1596</c:v>
+                  <c:v>1469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,13 +6014,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>38</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,13 +6111,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>368</c:v>
+                        <c:v>628</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>782</c:v>
+                        <c:v>297</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1634</c:v>
+                        <c:v>1530</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6350,7 +6350,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Barbados</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6445,10 +6445,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1257</c:v>
+                  <c:v>813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1666</c:v>
+                  <c:v>1195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>19</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1257</c:v>
+                        <c:v>814</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1697</c:v>
+                        <c:v>1217</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6843,7 +6843,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders BVI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6932,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>307</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2272</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,13 +6999,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,13 +7098,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>128</c:v>
+                        <c:v>240</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>308</c:v>
+                        <c:v>269</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2275</c:v>
+                        <c:v>699</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7337,7 +7337,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Cayman</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7426,13 +7426,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>439</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1135</c:v>
+                  <c:v>1133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,13 +7491,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>96</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,13 +7588,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>129</c:v>
+                        <c:v>78</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>483</c:v>
+                        <c:v>292</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1231</c:v>
+                        <c:v>1158</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7827,7 +7827,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Dominica</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7916,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>420</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>859</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,13 +7981,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,13 +8079,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>64</c:v>
+                        <c:v>187</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>420</c:v>
+                        <c:v>314</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>863</c:v>
+                        <c:v>1241</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8318,7 +8318,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Grenada</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8407,13 +8407,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>319</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>517</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1014</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8472,13 +8472,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,13 +8569,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>319</c:v>
+                        <c:v>164</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>517</c:v>
+                        <c:v>375</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1014</c:v>
+                        <c:v>764</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8808,7 +8808,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Jamaica</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8900,13 +8900,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1374</c:v>
+                  <c:v>7932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9114</c:v>
+                  <c:v>5687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18790</c:v>
+                  <c:v>19092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,13 +8965,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>84</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>286</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>407</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,13 +9062,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1458</c:v>
+                        <c:v>7979</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>9400</c:v>
+                        <c:v>5689</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>19197</c:v>
+                        <c:v>19169</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9301,7 +9301,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Mobile Orders</a:t>
+              <a:t>Mobile Orders Monserrat</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9390,13 +9390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,13 +9552,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>14</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>26</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>70</c:v>
+                        <c:v>66</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17444,20 +17444,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1345913414" displayName="Table1345913414" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL" dataDxfId="32">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLETE" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FAILED" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% Total" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="28">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="% FAILED" dataDxfId="27">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17466,20 +17466,20 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134592610" displayName="Table134592610" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TOTAL" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TOTAL" dataDxfId="23">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="COMPLETE" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FAILED" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="% Total" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="COMPLETE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FAILED" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="% Total" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="19">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="% FAILED" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="% FAILED" dataDxfId="18">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17510,20 +17510,20 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1345923711" displayName="Table1345923711" ref="B2:H5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TOTAL" dataDxfId="5">
       <calculatedColumnFormula>D3+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="COMPLETE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FAILED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="% Total" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1">
       <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="% FAILED" dataDxfId="0">
       <calculatedColumnFormula>E3/C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17973,7 +17973,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18018,17 +18018,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.99941211052322176</v>
+        <v>0.99960799686397495</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>2.9394473838918289E-4</v>
+        <v>1.9600156801254413E-4</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18072,7 +18072,7 @@
       <c r="C5" s="8">
         <v>0.01</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="6">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>2.9394473838918289E-4</v>
+        <v>1.9600156801254413E-4</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -18094,7 +18094,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>34.019999999999996</v>
+        <v>51.019999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -18157,25 +18157,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>693</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="E3" s="6">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.30052038161318301</v>
+        <v>0.16634799235181644</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.34632034632034631</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.65367965367965364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18184,17 +18184,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="D4" s="6">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.14050303555941024</v>
+        <v>0.18260038240917781</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18211,31 +18211,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1289</v>
+        <v>681</v>
       </c>
       <c r="D5" s="6">
-        <v>836</v>
+        <v>678</v>
       </c>
       <c r="E5" s="6">
-        <v>453</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.55897658282740681</v>
+        <v>0.65105162523900573</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.64856477889837083</v>
+        <v>0.99559471365638763</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0.35143522110162917</v>
+        <v>4.4052863436123352E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2306</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -18298,17 +18298,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.20349942944085203</v>
+        <v>4.3694141012909631E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18325,17 +18325,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="D4" s="6">
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26588056295169266</v>
+        <v>0.39026812313803377</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18352,31 +18352,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1395</v>
+        <v>570</v>
       </c>
       <c r="D5" s="6">
-        <v>1391</v>
+        <v>569</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.53062000760745531</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99713261648745521</v>
+        <v>0.99824561403508771</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.8673835125448029E-3</v>
+        <v>1.7543859649122807E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2629</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -18394,7 +18394,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18439,25 +18439,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D3" s="6">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12857771906649054</v>
+        <v>0.10792874607055536</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.99676375404530748</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>3.2362459546925568E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18466,17 +18466,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>596</v>
+        <v>319</v>
       </c>
       <c r="D4" s="6">
-        <v>596</v>
+        <v>319</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.2624394539850286</v>
+        <v>0.11142158574921411</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18493,31 +18493,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1383</v>
+        <v>2235</v>
       </c>
       <c r="D5" s="6">
-        <v>1377</v>
+        <v>2227</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.60898282694848083</v>
+        <v>0.78064966818023052</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99566160520607372</v>
+        <v>0.99642058165548097</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.3383947939262474E-3</v>
+        <v>3.5794183445190158E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2271</v>
+        <v>2863</v>
       </c>
     </row>
   </sheetData>
@@ -18580,25 +18580,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="D3" s="6">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.17523533671252717</v>
+        <v>0.15138282387190685</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99586776859504134</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>4.1322314049586778E-3</v>
+        <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18607,17 +18607,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="D4" s="6">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.25271542360608257</v>
+        <v>0.20596797671033479</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18634,31 +18634,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="D5" s="6">
-        <v>771</v>
+        <v>850</v>
       </c>
       <c r="E5" s="6">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57204923968139032</v>
+        <v>0.64264919941775833</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97594936708860758</v>
+        <v>0.96262740656851642</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.4050632911392405E-2</v>
+        <v>3.7372593431483581E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1381</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -18676,7 +18676,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18721,25 +18721,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>368</v>
+        <v>628</v>
       </c>
       <c r="D3" s="6">
-        <v>356</v>
+        <v>618</v>
       </c>
       <c r="E3" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.13218390804597702</v>
+        <v>0.25580448065173117</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.96739130434782605</v>
+        <v>0.98407643312101911</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>3.2608695652173912E-2</v>
+        <v>1.5923566878980892E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18748,17 +18748,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>782</v>
+        <v>297</v>
       </c>
       <c r="D4" s="6">
-        <v>782</v>
+        <v>297</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.28089080459770116</v>
+        <v>0.1209775967413442</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18775,31 +18775,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1634</v>
+        <v>1530</v>
       </c>
       <c r="D5" s="6">
-        <v>1596</v>
+        <v>1469</v>
       </c>
       <c r="E5" s="6">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.58692528735632188</v>
+        <v>0.62321792260692466</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97674418604651159</v>
+        <v>0.9601307189542484</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.3255813953488372E-2</v>
+        <v>3.9869281045751631E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2784</v>
+        <v>2455</v>
       </c>
     </row>
   </sheetData>
@@ -18817,7 +18817,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18860,25 +18860,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.390850992263707E-3</v>
+        <v>5.8737151248164461E-3</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.52631578947368418</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.47368421052631576</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18887,25 +18887,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>1257</v>
+        <v>814</v>
       </c>
       <c r="D4" s="6">
-        <v>1257</v>
+        <v>813</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.42280524722502522</v>
+        <v>0.39843367596671564</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99877149877149873</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>1.2285012285012285E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18914,31 +18914,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1697</v>
+        <v>1217</v>
       </c>
       <c r="D5" s="6">
-        <v>1666</v>
+        <v>1195</v>
       </c>
       <c r="E5" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57080390178271112</v>
+        <v>0.59569260890846798</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.98173246906305245</v>
+        <v>0.98192276088742814</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.8267530936947555E-2</v>
+        <v>1.8077239112571898E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>2973</v>
+        <v>2043</v>
       </c>
     </row>
   </sheetData>
@@ -18956,7 +18956,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19001,25 +19001,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="D3" s="6">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.7215049797122835E-2</v>
+        <v>0.19867549668874171</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19028,25 +19028,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D4" s="6">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.11361121357432681</v>
+        <v>0.22268211920529801</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99675324675324672</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.246753246753247E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19055,31 +19055,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2275</v>
+        <v>699</v>
       </c>
       <c r="D5" s="6">
-        <v>2272</v>
+        <v>694</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.83917373662855033</v>
+        <v>0.57864238410596025</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99868131868131871</v>
+        <v>0.99284692417739628</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.3186813186813187E-3</v>
+        <v>7.1530758226037196E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2711</v>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
@@ -19097,7 +19097,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19142,25 +19142,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E3" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>6.9994574064026038E-2</v>
+        <v>5.1047120418848166E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.84496124031007747</v>
+        <v>0.97435897435897434</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.15503875968992248</v>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19169,25 +19169,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="D4" s="6">
-        <v>439</v>
+        <v>290</v>
       </c>
       <c r="E4" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.26207270754205103</v>
+        <v>0.19109947643979058</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.90890269151138714</v>
+        <v>0.99315068493150682</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>9.1097308488612833E-2</v>
+        <v>6.8493150684931503E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19196,31 +19196,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1231</v>
+        <v>1158</v>
       </c>
       <c r="D5" s="6">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E5" s="6">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.66793271839392299</v>
+        <v>0.75785340314136129</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.92201462225832653</v>
+        <v>0.97841105354058722</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.798537774167344E-2</v>
+        <v>2.158894645941278E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1843</v>
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
@@ -19238,7 +19238,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19283,25 +19283,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="D3" s="6">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.7512991833704527E-2</v>
+        <v>0.10734787600459242</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.99465240641711228</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>5.3475935828877002E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19310,17 +19310,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="D4" s="6">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.31180400890868598</v>
+        <v>0.18025258323765786</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19337,31 +19337,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>863</v>
+        <v>1241</v>
       </c>
       <c r="D5" s="6">
-        <v>859</v>
+        <v>1232</v>
       </c>
       <c r="E5" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.64068299925760952</v>
+        <v>0.71239954075774969</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99536500579374276</v>
+        <v>0.99274778404512487</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.6349942062572421E-3</v>
+        <v>7.2522159548751011E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1347</v>
+        <v>1742</v>
       </c>
     </row>
   </sheetData>
@@ -19379,7 +19379,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19424,25 +19424,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>319</v>
+        <v>164</v>
       </c>
       <c r="D3" s="6">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.17243243243243242</v>
+        <v>0.12586339217191098</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.98780487804878048</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>1.2195121951219513E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19451,17 +19451,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="D4" s="6">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.27945945945945944</v>
+        <v>0.28779739063699156</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19478,31 +19478,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1014</v>
+        <v>764</v>
       </c>
       <c r="D5" s="6">
-        <v>1014</v>
+        <v>760</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.54810810810810806</v>
+        <v>0.58633921719109749</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>1</v>
+        <v>0.99476439790575921</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>0</v>
+        <v>5.235602094240838E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1850</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
@@ -19520,7 +19520,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19563,25 +19563,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>1458</v>
+        <v>7979</v>
       </c>
       <c r="D3" s="6">
-        <v>1374</v>
+        <v>7932</v>
       </c>
       <c r="E3" s="6">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.8511063051073035E-2</v>
+        <v>0.24298809270030758</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9423868312757202</v>
+        <v>0.99410953753603204</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.7613168724279837E-2</v>
+        <v>5.8904624639679161E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19590,25 +19590,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>9400</v>
+        <v>5689</v>
       </c>
       <c r="D4" s="6">
-        <v>9114</v>
+        <v>5687</v>
       </c>
       <c r="E4" s="7">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.31275994010979868</v>
+        <v>0.17324968785211803</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.96957446808510639</v>
+        <v>0.99964844436632094</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.0425531914893618E-2</v>
+        <v>3.5155563367902969E-4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19617,31 +19617,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>19197</v>
+        <v>19169</v>
       </c>
       <c r="D5" s="6">
-        <v>18790</v>
+        <v>19092</v>
       </c>
       <c r="E5" s="6">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.63872899683912832</v>
+        <v>0.58376221944757434</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97879877064124599</v>
+        <v>0.99598309770984406</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.1201229358753973E-2</v>
+        <v>4.016902290155981E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>30055</v>
+        <v>32837</v>
       </c>
     </row>
   </sheetData>
@@ -19704,17 +19704,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.12727272727272726</v>
+        <v>0.14953271028037382</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -19731,17 +19731,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.23636363636363636</v>
+        <v>0.23364485981308411</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19757,18 +19757,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>70</v>
+        <f>D5+E5</f>
+        <v>66</v>
       </c>
       <c r="D5" s="6">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.63636363636363635</v>
+        <v>0.61682242990654201</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -19782,7 +19782,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Condensado/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/ReporteSemanal/Condensado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FC573-F3BC-5349-B242-688BBBE96A76}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322176F-5874-B545-A92D-FDEC3959D520}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="SANTA LUCIA" sheetId="20" r:id="rId12"/>
     <sheet name="TURKS&amp;CAICOS" sheetId="19" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -3490,7 +3490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3653,7 +3653,7 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>51</c:v>
+                        <c:v>53</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.01</c:v>
@@ -3981,13 +3981,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>174</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>678</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4054,7 +4054,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,13 +4147,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>174</c:v>
+                        <c:v>223</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>191</c:v>
+                        <c:v>227</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>681</c:v>
+                        <c:v>728</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4475,13 +4475,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,7 +4546,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,13 +4638,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>44</c:v>
+                        <c:v>586</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>393</c:v>
+                        <c:v>342</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>570</c:v>
+                        <c:v>1112</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4969,13 +4969,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>308</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>319</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2227</c:v>
+                  <c:v>1085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5034,13 +5034,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,13 +5131,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>309</c:v>
+                        <c:v>284</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>319</c:v>
+                        <c:v>290</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2235</c:v>
+                        <c:v>1109</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5459,13 +5459,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>204</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>850</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,13 +5524,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,13 +5621,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>208</c:v>
+                        <c:v>310</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>283</c:v>
+                        <c:v>212</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>883</c:v>
+                        <c:v>687</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5949,13 +5949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>618</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>297</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1469</c:v>
+                  <c:v>1662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,13 +6014,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>61</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,13 +6111,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>628</c:v>
+                        <c:v>988</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>297</c:v>
+                        <c:v>296</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1530</c:v>
+                        <c:v>1739</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6442,13 +6442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>813</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1195</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,13 +6507,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>22</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,13 +6604,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>12</c:v>
+                        <c:v>284</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>814</c:v>
+                        <c:v>827</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1217</c:v>
+                        <c:v>1585</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6932,13 +6932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>238</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>269</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>694</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,13 +6999,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,13 +7098,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>240</c:v>
+                        <c:v>173</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>269</c:v>
+                        <c:v>206</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>699</c:v>
+                        <c:v>1382</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7426,13 +7426,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>290</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1133</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,13 +7491,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>25</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,13 +7588,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>78</c:v>
+                        <c:v>574</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>292</c:v>
+                        <c:v>363</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1158</c:v>
+                        <c:v>1902</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7916,13 +7916,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>314</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1232</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7981,7 +7981,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8079,13 +8079,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>187</c:v>
+                        <c:v>115</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>314</c:v>
+                        <c:v>254</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1241</c:v>
+                        <c:v>689</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8407,13 +8407,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>375</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>760</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8472,13 +8472,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,13 +8569,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>164</c:v>
+                        <c:v>462</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>375</c:v>
+                        <c:v>388</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>764</c:v>
+                        <c:v>1055</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8900,13 +8900,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7932</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5687</c:v>
+                  <c:v>6243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19092</c:v>
+                  <c:v>19868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,13 +8965,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>47</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>77</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,13 +9062,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>7979</c:v>
+                        <c:v>6686</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5689</c:v>
+                        <c:v>6256</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>19169</c:v>
+                        <c:v>19985</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9390,13 +9390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,13 +9552,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>16</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>66</c:v>
+                        <c:v>67</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17039,13 +17039,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>673635</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>526516</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
@@ -17973,7 +17973,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18018,17 +18018,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.99960799686397495</v>
+        <v>0.99962278385514902</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>1.9600156801254413E-4</v>
+        <v>1.8860807242549984E-4</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>1.9600156801254413E-4</v>
+        <v>1.8860807242549984E-4</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
@@ -18094,7 +18094,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>51.019999999999996</v>
+        <v>53.019999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -18109,6 +18109,288 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>223</v>
+      </c>
+      <c r="D3" s="6">
+        <v>223</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.18930390492359933</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>227</v>
+      </c>
+      <c r="D4" s="6">
+        <v>227</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.19269949066213921</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>728</v>
+      </c>
+      <c r="D5" s="6">
+        <v>726</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.61799660441426141</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.99725274725274726</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>1178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>586</v>
+      </c>
+      <c r="D3" s="6">
+        <v>586</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.28725490196078429</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>342</v>
+      </c>
+      <c r="D4" s="6">
+        <v>342</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.1676470588235294</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>D5+E5</f>
+        <v>1112</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1112</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.54509803921568623</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>2040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18157,25 +18439,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="D3" s="6">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16634799235181644</v>
+        <v>0.16874628639334521</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>1</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>1.4084507042253521E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18184,25 +18466,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="D4" s="6">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.18260038240917781</v>
+        <v>0.17231134878193702</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.98965517241379308</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>1.0344827586206896E-2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18211,31 +18493,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>681</v>
+        <v>1109</v>
       </c>
       <c r="D5" s="6">
-        <v>678</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.65105162523900573</v>
+        <v>0.6589423648247178</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99559471365638763</v>
+        <v>0.97835888187556352</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>4.4052863436123352E-3</v>
+        <v>2.1641118124436431E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1046</v>
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
@@ -18248,8 +18530,429 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>310</v>
+      </c>
+      <c r="D3" s="6">
+        <v>303</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.97741935483870968</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>2.2580645161290321E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>212</v>
+      </c>
+      <c r="D4" s="6">
+        <v>211</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.17535153019023986</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>0.99528301886792447</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>4.7169811320754715E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>D5+E5</f>
+        <v>687</v>
+      </c>
+      <c r="D5" s="6">
+        <v>657</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.56823821339950376</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.95633187772925765</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>4.3668122270742356E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>988</v>
+      </c>
+      <c r="D3" s="6">
+        <v>967</v>
+      </c>
+      <c r="E3" s="6">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.32682765464770097</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.97874493927125505</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>2.1255060728744939E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>296</v>
+      </c>
+      <c r="D4" s="6">
+        <v>296</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>9.7915977505788954E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>D5+E5</f>
+        <v>1739</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1662</v>
+      </c>
+      <c r="E5" s="6">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.57525636784651013</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.95572167912593442</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>4.4278320874065552E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>3023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>D3+E3</f>
+        <v>284</v>
+      </c>
+      <c r="D3" s="6">
+        <v>257</v>
+      </c>
+      <c r="E3" s="6">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/C6</f>
+        <v>0.10534124629080119</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/C3</f>
+        <v>0.90492957746478875</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3/C3</f>
+        <v>9.5070422535211266E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>D4+E4</f>
+        <v>827</v>
+      </c>
+      <c r="D4" s="6">
+        <v>827</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4/C6</f>
+        <v>0.30675074183976259</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1585</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1521</v>
+      </c>
+      <c r="E5" s="6">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5/C6</f>
+        <v>0.5879080118694362</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/C5</f>
+        <v>0.95962145110410091</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5/C5</f>
+        <v>4.0378548895899057E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>2696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18298,17 +19001,17 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>4.3694141012909631E-2</v>
+        <v>9.8239636570130601E-2</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
@@ -18325,17 +19028,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>393</v>
+        <v>206</v>
       </c>
       <c r="D4" s="6">
-        <v>393</v>
+        <v>206</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.39026812313803377</v>
+        <v>0.11697898921067575</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18351,32 +19054,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>570</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1382</v>
       </c>
       <c r="D5" s="6">
-        <v>569</v>
+        <v>1380</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.56603773584905659</v>
+        <v>0.78478137421919369</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99824561403508771</v>
+        <v>0.9985528219971056</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.7543859649122807E-3</v>
+        <v>1.4471780028943559E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1007</v>
+        <v>1761</v>
       </c>
     </row>
   </sheetData>
@@ -18389,152 +19092,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>309</v>
-      </c>
-      <c r="D3" s="6">
-        <v>308</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>0.10792874607055536</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.99676375404530748</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>3.2362459546925568E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>319</v>
-      </c>
-      <c r="D4" s="6">
-        <v>319</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.11142158574921411</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>2235</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2227</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.78064966818023052</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.99642058165548097</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>3.5794183445190158E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>2863</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
@@ -18580,25 +19142,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>208</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6">
-        <v>204</v>
+        <v>570</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.15138282387190685</v>
+        <v>0.20218386755899964</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98076923076923073</v>
+        <v>0.99303135888501737</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.9230769230769232E-2</v>
+        <v>6.9686411149825784E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18607,25 +19169,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="D4" s="6">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.20596797671033479</v>
+        <v>0.12786192321239873</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.99449035812672182</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>5.5096418732782371E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18633,32 +19195,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>883</v>
+        <f t="shared" ref="C5" si="0">D5+E5</f>
+        <v>1902</v>
       </c>
       <c r="D5" s="6">
-        <v>850</v>
+        <v>1861</v>
       </c>
       <c r="E5" s="6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.64264919941775833</v>
+        <v>0.6699542092286016</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.96262740656851642</v>
+        <v>0.97844374342797058</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.7372593431483581E-2</v>
+        <v>2.1556256572029444E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1374</v>
+        <v>2839</v>
       </c>
     </row>
   </sheetData>
@@ -18671,12 +19233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18721,25 +19283,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>628</v>
+        <v>115</v>
       </c>
       <c r="D3" s="6">
-        <v>618</v>
+        <v>110</v>
       </c>
       <c r="E3" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.25580448065173117</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.98407643312101911</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>1.5923566878980892E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18748,17 +19310,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="D4" s="6">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.1209775967413442</v>
+        <v>0.24007561436672967</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -18775,31 +19337,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1530</v>
+        <v>689</v>
       </c>
       <c r="D5" s="6">
-        <v>1469</v>
+        <v>680</v>
       </c>
       <c r="E5" s="6">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.62321792260692466</v>
+        <v>0.65122873345935728</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.9601307189542484</v>
+        <v>0.98693759071117559</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>3.9869281045751631E-2</v>
+        <v>1.3062409288824383E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>2455</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -18812,151 +19374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>5.8737151248164461E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>814</v>
-      </c>
-      <c r="D4" s="6">
-        <v>813</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.39843367596671564</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>0.99877149877149873</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>1.2285012285012285E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1217</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1195</v>
-      </c>
-      <c r="E5" s="6">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.59569260890846798</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.98192276088742814</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>1.8077239112571898E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>2043</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19001,25 +19424,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>240</v>
+        <v>462</v>
       </c>
       <c r="D3" s="6">
-        <v>238</v>
+        <v>462</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.19867549668874171</v>
+        <v>0.24251968503937008</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.9916666666666667</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>8.3333333333333332E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19028,17 +19451,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="D4" s="6">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.22268211920529801</v>
+        <v>0.2036745406824147</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19054,32 +19477,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>699</v>
+        <f>D5+E5</f>
+        <v>1055</v>
       </c>
       <c r="D5" s="6">
-        <v>694</v>
+        <v>1052</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.57864238410596025</v>
+        <v>0.5538057742782152</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99284692417739628</v>
+        <v>0.99715639810426537</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.1530758226037196E-3</v>
+        <v>2.843601895734597E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1208</v>
+        <v>1905</v>
       </c>
     </row>
   </sheetData>
@@ -19092,25 +19515,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C3" sqref="C3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
@@ -19142,25 +19563,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>78</v>
+        <v>6686</v>
       </c>
       <c r="D3" s="6">
-        <v>76</v>
+        <v>6600</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>5.1047120418848166E-2</v>
+        <v>0.20305524341725636</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.97435897435897434</v>
+        <v>0.98713730182470838</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>2.564102564102564E-2</v>
+        <v>1.2862698175291655E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19169,25 +19590,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>292</v>
+        <v>6256</v>
       </c>
       <c r="D4" s="6">
-        <v>290</v>
+        <v>6243</v>
       </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.19109947643979058</v>
+        <v>0.18999605187232363</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.99315068493150682</v>
+        <v>0.99792199488491051</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>6.8493150684931503E-3</v>
+        <v>2.0780051150895143E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19195,32 +19616,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>1158</v>
+        <f>D5+E5</f>
+        <v>19985</v>
       </c>
       <c r="D5" s="6">
-        <v>1133</v>
+        <v>19868</v>
       </c>
       <c r="E5" s="6">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.75785340314136129</v>
+        <v>0.60694870471042006</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.97841105354058722</v>
+        <v>0.9941456092069052</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>2.158894645941278E-2</v>
+        <v>5.8543907930948208E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="6">
+      <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>1528</v>
+        <v>32927</v>
       </c>
     </row>
   </sheetData>
@@ -19233,8 +19654,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19283,25 +19704,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.10734787600459242</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99465240641711228</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>5.3475935828877002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -19310,17 +19731,17 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.18025258323765786</v>
+        <v>0.26363636363636361</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
@@ -19337,452 +19758,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>1241</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6">
-        <v>1232</v>
+        <v>67</v>
       </c>
       <c r="E5" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.71239954075774969</v>
+        <v>0.60909090909090913</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99274778404512487</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.2522159548751011E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <f>SUM(C3:C5)</f>
-        <v>1742</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>164</v>
-      </c>
-      <c r="D3" s="6">
-        <v>162</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>0.12586339217191098</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.98780487804878048</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>1.2195121951219513E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>375</v>
-      </c>
-      <c r="D4" s="6">
-        <v>375</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.28779739063699156</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>764</v>
-      </c>
-      <c r="D5" s="6">
-        <v>760</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.58633921719109749</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.99476439790575921</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>5.235602094240838E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>1303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>7979</v>
-      </c>
-      <c r="D3" s="6">
-        <v>7932</v>
-      </c>
-      <c r="E3" s="6">
-        <v>47</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>0.24298809270030758</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>0.99410953753603204</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>5.8904624639679161E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>5689</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5687</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.17324968785211803</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>0.99964844436632094</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>3.5155563367902969E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>19169</v>
-      </c>
-      <c r="D5" s="6">
-        <v>19092</v>
-      </c>
-      <c r="E5" s="6">
-        <v>77</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.58376221944757434</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>0.99598309770984406</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>4.016902290155981E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>32837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f>D3+E3</f>
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3/C6</f>
-        <v>0.14953271028037382</v>
-      </c>
-      <c r="G3" s="3">
-        <f>D3/C3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>D4+E4</f>
-        <v>25</v>
-      </c>
-      <c r="D4" s="6">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4/C6</f>
-        <v>0.23364485981308411</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4/C4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f>D5+E5</f>
-        <v>66</v>
-      </c>
-      <c r="D5" s="6">
-        <v>66</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f>C5/C6</f>
-        <v>0.61682242990654201</v>
-      </c>
-      <c r="G5" s="3">
-        <f>D5/C5</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E5/C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="6">
-        <f>SUM(C3:C5)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
